--- a/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9403474843863031</v>
+      </c>
+      <c r="D2">
+        <v>0.9682351516123615</v>
+      </c>
+      <c r="E2">
+        <v>0.9489891607288634</v>
+      </c>
+      <c r="F2">
+        <v>0.9137344062395338</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.019109053990567</v>
+      </c>
+      <c r="J2">
+        <v>0.9644715445329568</v>
+      </c>
+      <c r="K2">
+        <v>0.9801555064257842</v>
+      </c>
+      <c r="L2">
+        <v>0.9612080741273005</v>
+      </c>
+      <c r="M2">
+        <v>0.9265424786938682</v>
+      </c>
+      <c r="N2">
+        <v>0.9658412047526259</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.957782042525947</v>
+      </c>
+      <c r="D3">
+        <v>0.9817800173950362</v>
+      </c>
+      <c r="E3">
+        <v>0.9657467523500078</v>
+      </c>
+      <c r="F3">
+        <v>0.9349285464943538</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.024573699550978</v>
+      </c>
+      <c r="J3">
+        <v>0.9794937370811524</v>
+      </c>
+      <c r="K3">
+        <v>0.9926514595752741</v>
+      </c>
+      <c r="L3">
+        <v>0.9768375185296835</v>
+      </c>
+      <c r="M3">
+        <v>0.9464677880329738</v>
+      </c>
+      <c r="N3">
+        <v>0.9808847305373096</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9682401219499934</v>
+      </c>
+      <c r="D4">
+        <v>0.9899103661509009</v>
+      </c>
+      <c r="E4">
+        <v>0.9758077427534231</v>
+      </c>
+      <c r="F4">
+        <v>0.947614608268359</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.027831383562657</v>
+      </c>
+      <c r="J4">
+        <v>0.9884926822136861</v>
+      </c>
+      <c r="K4">
+        <v>1.000132109081122</v>
+      </c>
+      <c r="L4">
+        <v>0.9862071909620023</v>
+      </c>
+      <c r="M4">
+        <v>0.9583892890625224</v>
+      </c>
+      <c r="N4">
+        <v>0.9898964552041249</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9724669665501117</v>
+      </c>
+      <c r="D5">
+        <v>0.9931970709450489</v>
+      </c>
+      <c r="E5">
+        <v>0.9798759728224709</v>
+      </c>
+      <c r="F5">
+        <v>0.9527373722395395</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.029142839983092</v>
+      </c>
+      <c r="J5">
+        <v>0.9921267881460185</v>
+      </c>
+      <c r="K5">
+        <v>1.003151619767112</v>
+      </c>
+      <c r="L5">
+        <v>0.9899926306542278</v>
+      </c>
+      <c r="M5">
+        <v>0.963201876482107</v>
+      </c>
+      <c r="N5">
+        <v>0.9935357219837191</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9731673932569169</v>
+      </c>
+      <c r="D6">
+        <v>0.9937417301564714</v>
+      </c>
+      <c r="E6">
+        <v>0.9805502191671854</v>
+      </c>
+      <c r="F6">
+        <v>0.953586039714531</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.029359845074566</v>
+      </c>
+      <c r="J6">
+        <v>0.9927288132904155</v>
+      </c>
+      <c r="K6">
+        <v>1.003651739133778</v>
+      </c>
+      <c r="L6">
+        <v>0.9906198199917849</v>
+      </c>
+      <c r="M6">
+        <v>0.963999068247866</v>
+      </c>
+      <c r="N6">
+        <v>0.9941386020728745</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9682972369190151</v>
+      </c>
+      <c r="D7">
+        <v>0.9899547756832743</v>
+      </c>
+      <c r="E7">
+        <v>0.9758627072927257</v>
+      </c>
+      <c r="F7">
+        <v>0.9476838452712275</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.027849125701063</v>
+      </c>
+      <c r="J7">
+        <v>0.9885417999330024</v>
+      </c>
+      <c r="K7">
+        <v>1.000172926176075</v>
+      </c>
+      <c r="L7">
+        <v>0.9862583476599971</v>
+      </c>
+      <c r="M7">
+        <v>0.9584543398476152</v>
+      </c>
+      <c r="N7">
+        <v>0.9899456426762365</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9464288678356656</v>
+      </c>
+      <c r="D8">
+        <v>0.9729580967699764</v>
+      </c>
+      <c r="E8">
+        <v>0.9548322540880663</v>
+      </c>
+      <c r="F8">
+        <v>0.9211345408910485</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.021019360415946</v>
+      </c>
+      <c r="J8">
+        <v>0.9697140247722325</v>
+      </c>
+      <c r="K8">
+        <v>0.9845172700392595</v>
+      </c>
+      <c r="L8">
+        <v>0.9666609231527074</v>
+      </c>
+      <c r="M8">
+        <v>0.9335005332483358</v>
+      </c>
+      <c r="N8">
+        <v>0.9710911299151621</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.8998068603991642</v>
+      </c>
+      <c r="D9">
+        <v>0.9368201618199071</v>
+      </c>
+      <c r="E9">
+        <v>0.9100984915395763</v>
+      </c>
+      <c r="F9">
+        <v>0.8641302942013589</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.006298655982936</v>
+      </c>
+      <c r="J9">
+        <v>0.9294716221112658</v>
+      </c>
+      <c r="K9">
+        <v>0.9510288129258573</v>
+      </c>
+      <c r="L9">
+        <v>0.9248405596276174</v>
+      </c>
+      <c r="M9">
+        <v>0.8798936723784594</v>
+      </c>
+      <c r="N9">
+        <v>0.930791578426549</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.8590058734428755</v>
+      </c>
+      <c r="D10">
+        <v>0.9053838097803295</v>
+      </c>
+      <c r="E10">
+        <v>0.8710732323172158</v>
+      </c>
+      <c r="F10">
+        <v>0.8135165102252351</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.9933563427607558</v>
+      </c>
+      <c r="J10">
+        <v>0.8941942646120487</v>
+      </c>
+      <c r="K10">
+        <v>0.9217009039050715</v>
+      </c>
+      <c r="L10">
+        <v>0.8882386682355404</v>
+      </c>
+      <c r="M10">
+        <v>0.8323282305744165</v>
+      </c>
+      <c r="N10">
+        <v>0.8954641230333135</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.8368117148108443</v>
+      </c>
+      <c r="D11">
+        <v>0.8883864464432701</v>
+      </c>
+      <c r="E11">
+        <v>0.8498974968684363</v>
+      </c>
+      <c r="F11">
+        <v>0.7855626133782689</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0.9863292964695179</v>
+      </c>
+      <c r="J11">
+        <v>0.874996929617644</v>
+      </c>
+      <c r="K11">
+        <v>0.9057722822766916</v>
+      </c>
+      <c r="L11">
+        <v>0.8683396405290458</v>
+      </c>
+      <c r="M11">
+        <v>0.8060969124257178</v>
+      </c>
+      <c r="N11">
+        <v>0.8762395256212517</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.8274286378383476</v>
+      </c>
+      <c r="D12">
+        <v>0.88122601506131</v>
+      </c>
+      <c r="E12">
+        <v>0.8409567056268427</v>
+      </c>
+      <c r="F12">
+        <v>0.7736299424229389</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.9833654228142568</v>
+      </c>
+      <c r="J12">
+        <v>0.8668806391646858</v>
+      </c>
+      <c r="K12">
+        <v>0.8990471736316999</v>
+      </c>
+      <c r="L12">
+        <v>0.8599304436741971</v>
+      </c>
+      <c r="M12">
+        <v>0.7949120829487352</v>
+      </c>
+      <c r="N12">
+        <v>0.868111709104899</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.8295063956836218</v>
+      </c>
+      <c r="D13">
+        <v>0.8828102086473766</v>
+      </c>
+      <c r="E13">
+        <v>0.8429359125687386</v>
+      </c>
+      <c r="F13">
+        <v>0.7762787731009438</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.9840212970073493</v>
+      </c>
+      <c r="J13">
+        <v>0.8686778719128525</v>
+      </c>
+      <c r="K13">
+        <v>0.9005358217928346</v>
+      </c>
+      <c r="L13">
+        <v>0.8617923467034566</v>
+      </c>
+      <c r="M13">
+        <v>0.7973941662632361</v>
+      </c>
+      <c r="N13">
+        <v>0.8699114941297131</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.8360639071210629</v>
+      </c>
+      <c r="D14">
+        <v>0.8878151945261842</v>
+      </c>
+      <c r="E14">
+        <v>0.8491846787181155</v>
+      </c>
+      <c r="F14">
+        <v>0.7846143105686383</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.9860929048482816</v>
+      </c>
+      <c r="J14">
+        <v>0.8743500782563172</v>
+      </c>
+      <c r="K14">
+        <v>0.9052360858583257</v>
+      </c>
+      <c r="L14">
+        <v>0.8676693643351538</v>
+      </c>
+      <c r="M14">
+        <v>0.8052077368771891</v>
+      </c>
+      <c r="N14">
+        <v>0.8755917556567968</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.8399310174723059</v>
+      </c>
+      <c r="D15">
+        <v>0.8907703521927446</v>
+      </c>
+      <c r="E15">
+        <v>0.852871329771883</v>
+      </c>
+      <c r="F15">
+        <v>0.7895134084261469</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0.9873156549637147</v>
+      </c>
+      <c r="J15">
+        <v>0.8776951164575997</v>
+      </c>
+      <c r="K15">
+        <v>0.9080092893852056</v>
+      </c>
+      <c r="L15">
+        <v>0.8711356902374344</v>
+      </c>
+      <c r="M15">
+        <v>0.8098019070494377</v>
+      </c>
+      <c r="N15">
+        <v>0.8789415441960063</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.8603538390071903</v>
+      </c>
+      <c r="D16">
+        <v>0.9064187039537241</v>
+      </c>
+      <c r="E16">
+        <v>0.8723605707283789</v>
+      </c>
+      <c r="F16">
+        <v>0.8152033764139012</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>0.9937836847791317</v>
+      </c>
+      <c r="J16">
+        <v>0.8953601373297829</v>
+      </c>
+      <c r="K16">
+        <v>0.9226691249831809</v>
+      </c>
+      <c r="L16">
+        <v>0.889447567877269</v>
+      </c>
+      <c r="M16">
+        <v>0.8339122600972679</v>
+      </c>
+      <c r="N16">
+        <v>0.8966316514240346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.8717443609679835</v>
+      </c>
+      <c r="D17">
+        <v>0.9151745162092457</v>
+      </c>
+      <c r="E17">
+        <v>0.8832442502778854</v>
+      </c>
+      <c r="F17">
+        <v>0.8294135389053233</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>0.997396327379895</v>
+      </c>
+      <c r="J17">
+        <v>0.9052112233660286</v>
+      </c>
+      <c r="K17">
+        <v>0.9308534610618614</v>
+      </c>
+      <c r="L17">
+        <v>0.8996641683229162</v>
+      </c>
+      <c r="M17">
+        <v>0.8472602211089851</v>
+      </c>
+      <c r="N17">
+        <v>0.9064967271323868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.8779923923823292</v>
+      </c>
+      <c r="D18">
+        <v>0.9199851561627381</v>
+      </c>
+      <c r="E18">
+        <v>0.8892183564873989</v>
+      </c>
+      <c r="F18">
+        <v>0.8371768647396175</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>0.9993786964974286</v>
+      </c>
+      <c r="J18">
+        <v>0.9106141109621346</v>
+      </c>
+      <c r="K18">
+        <v>0.9353444700124472</v>
+      </c>
+      <c r="L18">
+        <v>0.9052690482936037</v>
+      </c>
+      <c r="M18">
+        <v>0.8545552349998413</v>
+      </c>
+      <c r="N18">
+        <v>0.9119072874485993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.8800636317952856</v>
+      </c>
+      <c r="D19">
+        <v>0.9215810583765677</v>
+      </c>
+      <c r="E19">
+        <v>0.8911994192090194</v>
+      </c>
+      <c r="F19">
+        <v>0.8397458573898521</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.000035898307904</v>
+      </c>
+      <c r="J19">
+        <v>0.9124050411198773</v>
+      </c>
+      <c r="K19">
+        <v>0.9368334451893867</v>
+      </c>
+      <c r="L19">
+        <v>0.9071271792241657</v>
+      </c>
+      <c r="M19">
+        <v>0.8569696232349929</v>
+      </c>
+      <c r="N19">
+        <v>0.9137007609325883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.8705652487088965</v>
+      </c>
+      <c r="D20">
+        <v>0.9142672703330286</v>
+      </c>
+      <c r="E20">
+        <v>0.8821171551421355</v>
+      </c>
+      <c r="F20">
+        <v>0.8279460616646875</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>0.9970222588752753</v>
+      </c>
+      <c r="J20">
+        <v>0.9041915398243866</v>
+      </c>
+      <c r="K20">
+        <v>0.9300060443932868</v>
+      </c>
+      <c r="L20">
+        <v>0.8986064856926208</v>
+      </c>
+      <c r="M20">
+        <v>0.8458814685759807</v>
+      </c>
+      <c r="N20">
+        <v>0.9054755955231565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.8341706699923322</v>
+      </c>
+      <c r="D21">
+        <v>0.8863693925100909</v>
+      </c>
+      <c r="E21">
+        <v>0.8473802252581821</v>
+      </c>
+      <c r="F21">
+        <v>0.7822114351896561</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>0.9854945605103247</v>
+      </c>
+      <c r="J21">
+        <v>0.8727124351150178</v>
+      </c>
+      <c r="K21">
+        <v>0.903878755128783</v>
+      </c>
+      <c r="L21">
+        <v>0.8659724789257128</v>
+      </c>
+      <c r="M21">
+        <v>0.8029549104701338</v>
+      </c>
+      <c r="N21">
+        <v>0.8739517868743965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.8038438865789767</v>
+      </c>
+      <c r="D22">
+        <v>0.8633025895553731</v>
+      </c>
+      <c r="E22">
+        <v>0.8185155177629532</v>
+      </c>
+      <c r="F22">
+        <v>0.7432703856804541</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>0.9759412510722147</v>
+      </c>
+      <c r="J22">
+        <v>0.8464812160209266</v>
+      </c>
+      <c r="K22">
+        <v>0.8821738985459951</v>
+      </c>
+      <c r="L22">
+        <v>0.8388045279265133</v>
+      </c>
+      <c r="M22">
+        <v>0.7664985441078513</v>
+      </c>
+      <c r="N22">
+        <v>0.847683316440429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.8209859507467995</v>
+      </c>
+      <c r="D23">
+        <v>0.876318940420712</v>
+      </c>
+      <c r="E23">
+        <v>0.8348218413590672</v>
+      </c>
+      <c r="F23">
+        <v>0.7653916030021627</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>0.9813334202897772</v>
+      </c>
+      <c r="J23">
+        <v>0.8613078758167522</v>
+      </c>
+      <c r="K23">
+        <v>0.8944332706603301</v>
+      </c>
+      <c r="L23">
+        <v>0.8541578373556019</v>
+      </c>
+      <c r="M23">
+        <v>0.7871952526090549</v>
+      </c>
+      <c r="N23">
+        <v>0.8625310317938062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.8710992358631302</v>
+      </c>
+      <c r="D24">
+        <v>0.9146781125117336</v>
+      </c>
+      <c r="E24">
+        <v>0.8826275724275162</v>
+      </c>
+      <c r="F24">
+        <v>0.8286107381277541</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>0.9971916620514011</v>
+      </c>
+      <c r="J24">
+        <v>0.9046533284816816</v>
+      </c>
+      <c r="K24">
+        <v>0.9303898108529884</v>
+      </c>
+      <c r="L24">
+        <v>0.8990854783846893</v>
+      </c>
+      <c r="M24">
+        <v>0.8465059499012815</v>
+      </c>
+      <c r="N24">
+        <v>0.9059380399733127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9131344563727175</v>
+      </c>
+      <c r="D25">
+        <v>0.9471318185014903</v>
+      </c>
+      <c r="E25">
+        <v>0.9228715972028365</v>
+      </c>
+      <c r="F25">
+        <v>0.8804978601472309</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.010520706644676</v>
+      </c>
+      <c r="J25">
+        <v>0.9409858536888309</v>
+      </c>
+      <c r="K25">
+        <v>0.9606103141288445</v>
+      </c>
+      <c r="L25">
+        <v>0.936798163577038</v>
+      </c>
+      <c r="M25">
+        <v>0.8952856989520553</v>
+      </c>
+      <c r="N25">
+        <v>0.9423221615336552</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9403474843863031</v>
+        <v>1.011496087153573</v>
       </c>
       <c r="D2">
-        <v>0.9682351516123615</v>
+        <v>1.02668137704173</v>
       </c>
       <c r="E2">
-        <v>0.9489891607288634</v>
+        <v>1.019596049074951</v>
       </c>
       <c r="F2">
-        <v>0.9137344062395338</v>
+        <v>1.017075215755373</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.019109053990567</v>
+        <v>1.049830559581614</v>
       </c>
       <c r="J2">
-        <v>0.9644715445329568</v>
+        <v>1.033338306122032</v>
       </c>
       <c r="K2">
-        <v>0.9801555064257842</v>
+        <v>1.037781103097478</v>
       </c>
       <c r="L2">
-        <v>0.9612080741273005</v>
+        <v>1.030788966894784</v>
       </c>
       <c r="M2">
-        <v>0.9265424786938682</v>
+        <v>1.028301682757594</v>
       </c>
       <c r="N2">
-        <v>0.9658412047526259</v>
+        <v>1.014066240810724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.957782042525947</v>
+        <v>1.017233271306128</v>
       </c>
       <c r="D3">
-        <v>0.9817800173950362</v>
+        <v>1.031010722034549</v>
       </c>
       <c r="E3">
-        <v>0.9657467523500078</v>
+        <v>1.024834419919468</v>
       </c>
       <c r="F3">
-        <v>0.9349285464943538</v>
+        <v>1.023538475447923</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.024573699550978</v>
+        <v>1.052211335954276</v>
       </c>
       <c r="J3">
-        <v>0.9794937370811524</v>
+        <v>1.037264915690451</v>
       </c>
       <c r="K3">
-        <v>0.9926514595752741</v>
+        <v>1.041261613743314</v>
       </c>
       <c r="L3">
-        <v>0.9768375185296835</v>
+        <v>1.035159102439196</v>
       </c>
       <c r="M3">
-        <v>0.9464677880329738</v>
+        <v>1.03387878146978</v>
       </c>
       <c r="N3">
-        <v>0.9808847305373096</v>
+        <v>1.015465771955025</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9682401219499934</v>
+        <v>1.020851484421576</v>
       </c>
       <c r="D4">
-        <v>0.9899103661509009</v>
+        <v>1.033743396737505</v>
       </c>
       <c r="E4">
-        <v>0.9758077427534231</v>
+        <v>1.028143100157291</v>
       </c>
       <c r="F4">
-        <v>0.947614608268359</v>
+        <v>1.027617837583115</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027831383562657</v>
+        <v>1.053701386124591</v>
       </c>
       <c r="J4">
-        <v>0.9884926822136861</v>
+        <v>1.039736439254554</v>
       </c>
       <c r="K4">
-        <v>1.000132109081122</v>
+        <v>1.043450936488199</v>
       </c>
       <c r="L4">
-        <v>0.9862071909620023</v>
+        <v>1.037913325667731</v>
       </c>
       <c r="M4">
-        <v>0.9583892890625224</v>
+        <v>1.037393985689031</v>
       </c>
       <c r="N4">
-        <v>0.9898964552041249</v>
+        <v>1.016345533175094</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9724669665501117</v>
+        <v>1.022351065645549</v>
       </c>
       <c r="D5">
-        <v>0.9931970709450489</v>
+        <v>1.034876457333417</v>
       </c>
       <c r="E5">
-        <v>0.9798759728224709</v>
+        <v>1.029515561920443</v>
       </c>
       <c r="F5">
-        <v>0.9527373722395395</v>
+        <v>1.029309362919547</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029142839983092</v>
+        <v>1.054316166780021</v>
       </c>
       <c r="J5">
-        <v>0.9921267881460185</v>
+        <v>1.040759574580433</v>
       </c>
       <c r="K5">
-        <v>1.003151619767112</v>
+        <v>1.044356897575313</v>
       </c>
       <c r="L5">
-        <v>0.9899926306542278</v>
+        <v>1.039054340080095</v>
       </c>
       <c r="M5">
-        <v>0.963201876482107</v>
+        <v>1.038850399864923</v>
       </c>
       <c r="N5">
-        <v>0.9935357219837191</v>
+        <v>1.01670943644375</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9731673932569169</v>
+        <v>1.022601618617778</v>
       </c>
       <c r="D6">
-        <v>0.9937417301564714</v>
+        <v>1.035065798528053</v>
       </c>
       <c r="E6">
-        <v>0.9805502191671854</v>
+        <v>1.029744942946812</v>
       </c>
       <c r="F6">
-        <v>0.953586039714531</v>
+        <v>1.029592035619703</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029359845074566</v>
+        <v>1.054418721221325</v>
       </c>
       <c r="J6">
-        <v>0.9927288132904155</v>
+        <v>1.040930450642787</v>
       </c>
       <c r="K6">
-        <v>1.003651739133778</v>
+        <v>1.044508183065671</v>
       </c>
       <c r="L6">
-        <v>0.9906198199917849</v>
+        <v>1.039244953465346</v>
       </c>
       <c r="M6">
-        <v>0.963999068247866</v>
+        <v>1.039093712961967</v>
       </c>
       <c r="N6">
-        <v>0.9941386020728745</v>
+        <v>1.016770195139149</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9682972369190151</v>
+        <v>1.020871605142551</v>
       </c>
       <c r="D7">
-        <v>0.9899547756832743</v>
+        <v>1.033758597776487</v>
       </c>
       <c r="E7">
-        <v>0.9758627072927257</v>
+        <v>1.028161510684369</v>
       </c>
       <c r="F7">
-        <v>0.9476838452712275</v>
+        <v>1.027640530433169</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027849125701063</v>
+        <v>1.053709646007826</v>
       </c>
       <c r="J7">
-        <v>0.9885417999330024</v>
+        <v>1.039750172012843</v>
       </c>
       <c r="K7">
-        <v>1.000172926176075</v>
+        <v>1.043463097914865</v>
       </c>
       <c r="L7">
-        <v>0.9862583476599971</v>
+        <v>1.037928637259184</v>
       </c>
       <c r="M7">
-        <v>0.9584543398476152</v>
+        <v>1.037413529069044</v>
       </c>
       <c r="N7">
-        <v>0.9899456426762365</v>
+        <v>1.016350418741408</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9464288678356656</v>
+        <v>1.01345512098386</v>
       </c>
       <c r="D8">
-        <v>0.9729580967699764</v>
+        <v>1.028159155312423</v>
       </c>
       <c r="E8">
-        <v>0.9548322540880663</v>
+        <v>1.021383666703354</v>
       </c>
       <c r="F8">
-        <v>0.9211345408910485</v>
+        <v>1.019281521222126</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.021019360415946</v>
+        <v>1.050645883037824</v>
       </c>
       <c r="J8">
-        <v>0.9697140247722325</v>
+        <v>1.034680090234656</v>
       </c>
       <c r="K8">
-        <v>0.9845172700392595</v>
+        <v>1.038970738048903</v>
       </c>
       <c r="L8">
-        <v>0.9666609231527074</v>
+        <v>1.032281568258662</v>
       </c>
       <c r="M8">
-        <v>0.9335005332483358</v>
+        <v>1.03020649560647</v>
       </c>
       <c r="N8">
-        <v>0.9710911299151621</v>
+        <v>1.014544713629464</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8998068603991642</v>
+        <v>0.9996157935885623</v>
       </c>
       <c r="D9">
-        <v>0.9368201618199071</v>
+        <v>1.017732460425822</v>
       </c>
       <c r="E9">
-        <v>0.9100984915395763</v>
+        <v>1.008778897860276</v>
       </c>
       <c r="F9">
-        <v>0.8641302942013589</v>
+        <v>1.003707407684328</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.006298655982936</v>
+        <v>1.044838851404575</v>
       </c>
       <c r="J9">
-        <v>0.9294716221112658</v>
+        <v>1.025182126472939</v>
       </c>
       <c r="K9">
-        <v>0.9510288129258573</v>
+        <v>1.030544245987072</v>
       </c>
       <c r="L9">
-        <v>0.9248405596276174</v>
+        <v>1.021731131378261</v>
       </c>
       <c r="M9">
-        <v>0.8798936723784594</v>
+        <v>1.016740619803467</v>
       </c>
       <c r="N9">
-        <v>0.930791578426549</v>
+        <v>1.011153568538218</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8590058734428755</v>
+        <v>0.9897954849842168</v>
       </c>
       <c r="D10">
-        <v>0.9053838097803295</v>
+        <v>1.010353635901966</v>
       </c>
       <c r="E10">
-        <v>0.8710732323172158</v>
+        <v>0.9998671839551027</v>
       </c>
       <c r="F10">
-        <v>0.8135165102252351</v>
+        <v>0.9926691452530598</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9933563427607558</v>
+        <v>1.040659694286435</v>
       </c>
       <c r="J10">
-        <v>0.8941942646120487</v>
+        <v>1.018419904967635</v>
       </c>
       <c r="K10">
-        <v>0.9217009039050715</v>
+        <v>1.024538435125112</v>
       </c>
       <c r="L10">
-        <v>0.8882386682355404</v>
+        <v>1.014238836850784</v>
       </c>
       <c r="M10">
-        <v>0.8323282305744165</v>
+        <v>1.007172034163405</v>
       </c>
       <c r="N10">
-        <v>0.8954641230333135</v>
+        <v>1.008734597725179</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.8368117148108443</v>
+        <v>0.9853830844925274</v>
       </c>
       <c r="D11">
-        <v>0.8883864464432701</v>
+        <v>1.007044166603331</v>
       </c>
       <c r="E11">
-        <v>0.8498974968684363</v>
+        <v>0.9958716122917025</v>
       </c>
       <c r="F11">
-        <v>0.7855626133782689</v>
+        <v>0.9877117638731244</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9863292964695179</v>
+        <v>1.038768672764498</v>
       </c>
       <c r="J11">
-        <v>0.874996929617644</v>
+        <v>1.015376845482748</v>
       </c>
       <c r="K11">
-        <v>0.9057722822766916</v>
+        <v>1.021834451777938</v>
       </c>
       <c r="L11">
-        <v>0.8683396405290458</v>
+        <v>1.010871806185163</v>
       </c>
       <c r="M11">
-        <v>0.8060969124257178</v>
+        <v>1.002869199570366</v>
       </c>
       <c r="N11">
-        <v>0.8762395256212517</v>
+        <v>1.007645220286931</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8274286378383476</v>
+        <v>0.9837182317882335</v>
       </c>
       <c r="D12">
-        <v>0.88122601506131</v>
+        <v>1.005796467815837</v>
       </c>
       <c r="E12">
-        <v>0.8409567056268427</v>
+        <v>0.9943654036188669</v>
       </c>
       <c r="F12">
-        <v>0.7736299424229389</v>
+        <v>0.9858415429925665</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9833654228142568</v>
+        <v>1.03805323068727</v>
       </c>
       <c r="J12">
-        <v>0.8668806391646858</v>
+        <v>1.014228015188191</v>
       </c>
       <c r="K12">
-        <v>0.8990471736316999</v>
+        <v>1.020813452888824</v>
       </c>
       <c r="L12">
-        <v>0.8599304436741971</v>
+        <v>1.009601355666035</v>
       </c>
       <c r="M12">
-        <v>0.7949120829487352</v>
+        <v>1.001245118343796</v>
       </c>
       <c r="N12">
-        <v>0.868111709104899</v>
+        <v>1.007233854568444</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8295063956836218</v>
+        <v>0.9840765514107099</v>
       </c>
       <c r="D13">
-        <v>0.8828102086473766</v>
+        <v>1.006064957812339</v>
       </c>
       <c r="E13">
-        <v>0.8429359125687386</v>
+        <v>0.9946895157360008</v>
       </c>
       <c r="F13">
-        <v>0.7762787731009438</v>
+        <v>0.986244052841344</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9840212970073493</v>
+        <v>1.038207298924655</v>
       </c>
       <c r="J13">
-        <v>0.8686778719128525</v>
+        <v>1.014475301563284</v>
       </c>
       <c r="K13">
-        <v>0.9005358217928346</v>
+        <v>1.021033231204034</v>
       </c>
       <c r="L13">
-        <v>0.8617923467034566</v>
+        <v>1.009874789833054</v>
       </c>
       <c r="M13">
-        <v>0.7973941662632361</v>
+        <v>1.001594689234836</v>
       </c>
       <c r="N13">
-        <v>0.8699114941297131</v>
+        <v>1.007322405329237</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8360639071210629</v>
+        <v>0.9852460066652754</v>
       </c>
       <c r="D14">
-        <v>0.8878151945261842</v>
+        <v>1.006941414623879</v>
       </c>
       <c r="E14">
-        <v>0.8491846787181155</v>
+        <v>0.9957475683493809</v>
       </c>
       <c r="F14">
-        <v>0.7846143105686383</v>
+        <v>0.9875577720075052</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9860929048482816</v>
+        <v>1.038709804872368</v>
       </c>
       <c r="J14">
-        <v>0.8743500782563172</v>
+        <v>1.015282267806823</v>
       </c>
       <c r="K14">
-        <v>0.9052360858583257</v>
+        <v>1.021750401348549</v>
       </c>
       <c r="L14">
-        <v>0.8676693643351538</v>
+        <v>1.010767202153776</v>
       </c>
       <c r="M14">
-        <v>0.8052077368771891</v>
+        <v>1.002735490501486</v>
       </c>
       <c r="N14">
-        <v>0.8755917556567968</v>
+        <v>1.007611356384815</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8399310174723059</v>
+        <v>0.9859630579291933</v>
       </c>
       <c r="D15">
-        <v>0.8907703521927446</v>
+        <v>1.007478949657239</v>
       </c>
       <c r="E15">
-        <v>0.852871329771883</v>
+        <v>0.9963964958494458</v>
       </c>
       <c r="F15">
-        <v>0.7895134084261469</v>
+        <v>0.9883633103266171</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9873156549637147</v>
+        <v>1.039017663135522</v>
       </c>
       <c r="J15">
-        <v>0.8776951164575997</v>
+        <v>1.015776975709643</v>
       </c>
       <c r="K15">
-        <v>0.9080092893852056</v>
+        <v>1.022190037199397</v>
       </c>
       <c r="L15">
-        <v>0.8711356902374344</v>
+        <v>1.0113143829148</v>
       </c>
       <c r="M15">
-        <v>0.8098019070494377</v>
+        <v>1.003434896465955</v>
       </c>
       <c r="N15">
-        <v>0.8789415441960063</v>
+        <v>1.0077884845893</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8603538390071903</v>
+        <v>0.9900847953428609</v>
       </c>
       <c r="D16">
-        <v>0.9064187039537241</v>
+        <v>1.010570762272696</v>
       </c>
       <c r="E16">
-        <v>0.8723605707283789</v>
+        <v>1.000129348612963</v>
       </c>
       <c r="F16">
-        <v>0.8152033764139012</v>
+        <v>0.9929942290974205</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9937836847791317</v>
+        <v>1.040783413255502</v>
       </c>
       <c r="J16">
-        <v>0.8953601373297829</v>
+        <v>1.018619338317447</v>
       </c>
       <c r="K16">
-        <v>0.9226691249831809</v>
+        <v>1.024715620717186</v>
       </c>
       <c r="L16">
-        <v>0.889447567877269</v>
+        <v>1.014459597144317</v>
       </c>
       <c r="M16">
-        <v>0.8339122600972679</v>
+        <v>1.007454084069867</v>
       </c>
       <c r="N16">
-        <v>0.8966316514240346</v>
+        <v>1.008805977404823</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8717443609679835</v>
+        <v>0.9926261419097653</v>
       </c>
       <c r="D17">
-        <v>0.9151745162092457</v>
+        <v>1.012478719053119</v>
       </c>
       <c r="E17">
-        <v>0.8832442502778854</v>
+        <v>1.002433224601584</v>
       </c>
       <c r="F17">
-        <v>0.8294135389053233</v>
+        <v>0.9958500630151502</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.997396327379895</v>
+        <v>1.041868683147347</v>
       </c>
       <c r="J17">
-        <v>0.9052112233660286</v>
+        <v>1.020370665822586</v>
       </c>
       <c r="K17">
-        <v>0.9308534610618614</v>
+        <v>1.026271432481285</v>
       </c>
       <c r="L17">
-        <v>0.8996641683229162</v>
+        <v>1.016398724660884</v>
       </c>
       <c r="M17">
-        <v>0.8472602211089851</v>
+        <v>1.009931249031277</v>
       </c>
       <c r="N17">
-        <v>0.9064967271323868</v>
+        <v>1.00943270943087</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8779923923823292</v>
+        <v>0.9940931480771138</v>
       </c>
       <c r="D18">
-        <v>0.9199851561627381</v>
+        <v>1.013580650187144</v>
       </c>
       <c r="E18">
-        <v>0.8892183564873989</v>
+        <v>1.003763954186663</v>
       </c>
       <c r="F18">
-        <v>0.8371768647396175</v>
+        <v>0.9974988279020199</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9993786964974286</v>
+        <v>1.042493905088586</v>
       </c>
       <c r="J18">
-        <v>0.9106141109621346</v>
+        <v>1.021381181576533</v>
       </c>
       <c r="K18">
-        <v>0.9353444700124472</v>
+        <v>1.027169010336106</v>
       </c>
       <c r="L18">
-        <v>0.9052690482936037</v>
+        <v>1.017518031638037</v>
       </c>
       <c r="M18">
-        <v>0.8545552349998413</v>
+        <v>1.011360874952544</v>
       </c>
       <c r="N18">
-        <v>0.9119072874485993</v>
+        <v>1.00979425485064</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8800636317952856</v>
+        <v>0.9945908136545329</v>
       </c>
       <c r="D19">
-        <v>0.9215810583765677</v>
+        <v>1.013954558662442</v>
       </c>
       <c r="E19">
-        <v>0.8911994192090194</v>
+        <v>1.004215523668607</v>
       </c>
       <c r="F19">
-        <v>0.8397458573898521</v>
+        <v>0.9980581925280437</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.000035898307904</v>
+        <v>1.042705790016258</v>
       </c>
       <c r="J19">
-        <v>0.9124050411198773</v>
+        <v>1.021723910223574</v>
       </c>
       <c r="K19">
-        <v>0.9368334451893867</v>
+        <v>1.027473412912069</v>
       </c>
       <c r="L19">
-        <v>0.9071271792241657</v>
+        <v>1.017897731184626</v>
       </c>
       <c r="M19">
-        <v>0.8569696232349929</v>
+        <v>1.011845804583986</v>
       </c>
       <c r="N19">
-        <v>0.9137007609325883</v>
+        <v>1.009916863274939</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8705652487088965</v>
+        <v>0.9923550765609604</v>
       </c>
       <c r="D20">
-        <v>0.9142672703330286</v>
+        <v>1.012275154222088</v>
       </c>
       <c r="E20">
-        <v>0.8821171551421355</v>
+        <v>1.002187404260526</v>
       </c>
       <c r="F20">
-        <v>0.8279460616646875</v>
+        <v>0.9955454315655793</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9970222588752753</v>
+        <v>1.041753056032624</v>
       </c>
       <c r="J20">
-        <v>0.9041915398243866</v>
+        <v>1.020183911637473</v>
       </c>
       <c r="K20">
-        <v>0.9300060443932868</v>
+        <v>1.026105540156321</v>
       </c>
       <c r="L20">
-        <v>0.8986064856926208</v>
+        <v>1.016191899542083</v>
       </c>
       <c r="M20">
-        <v>0.8458814685759807</v>
+        <v>1.009667064060572</v>
       </c>
       <c r="N20">
-        <v>0.9054755955231565</v>
+        <v>1.009365885393783</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8341706699923322</v>
+        <v>0.9849023615976608</v>
       </c>
       <c r="D21">
-        <v>0.8863693925100909</v>
+        <v>1.00668383875316</v>
       </c>
       <c r="E21">
-        <v>0.8473802252581821</v>
+        <v>0.9954366206909552</v>
       </c>
       <c r="F21">
-        <v>0.7822114351896561</v>
+        <v>0.987171728453874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9854945605103247</v>
+        <v>1.038562195988405</v>
       </c>
       <c r="J21">
-        <v>0.8727124351150178</v>
+        <v>1.015045157616583</v>
       </c>
       <c r="K21">
-        <v>0.903878755128783</v>
+        <v>1.021539680606072</v>
       </c>
       <c r="L21">
-        <v>0.8659724789257128</v>
+        <v>1.01050496652687</v>
       </c>
       <c r="M21">
-        <v>0.8029549104701338</v>
+        <v>1.002400281394255</v>
       </c>
       <c r="N21">
-        <v>0.8739517868743965</v>
+        <v>1.007526456661216</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8038438865789767</v>
+        <v>0.9800656995781269</v>
       </c>
       <c r="D22">
-        <v>0.8633025895553731</v>
+        <v>1.003061114732146</v>
       </c>
       <c r="E22">
-        <v>0.8185155177629532</v>
+        <v>0.9910635382806277</v>
       </c>
       <c r="F22">
-        <v>0.7432703856804541</v>
+        <v>0.9817388339235883</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9759412510722147</v>
+        <v>1.036480116214209</v>
       </c>
       <c r="J22">
-        <v>0.8464812160209266</v>
+        <v>1.011706466380408</v>
       </c>
       <c r="K22">
-        <v>0.8821738985459951</v>
+        <v>1.018572173275827</v>
       </c>
       <c r="L22">
-        <v>0.8388045279265133</v>
+        <v>1.006814131546922</v>
       </c>
       <c r="M22">
-        <v>0.7664985441078513</v>
+        <v>0.9976809406278664</v>
       </c>
       <c r="N22">
-        <v>0.847683316440429</v>
+        <v>1.006330800707048</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8209859507467995</v>
+        <v>0.9826446658215831</v>
       </c>
       <c r="D23">
-        <v>0.876318940420712</v>
+        <v>1.004992197870186</v>
       </c>
       <c r="E23">
-        <v>0.8348218413590672</v>
+        <v>0.99339453439789</v>
       </c>
       <c r="F23">
-        <v>0.7653916030021627</v>
+        <v>0.9846356095283312</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9813334202897772</v>
+        <v>1.03759134565466</v>
       </c>
       <c r="J23">
-        <v>0.8613078758167522</v>
+        <v>1.013487027367289</v>
       </c>
       <c r="K23">
-        <v>0.8944332706603301</v>
+        <v>1.0201548677611</v>
       </c>
       <c r="L23">
-        <v>0.8541578373556019</v>
+        <v>1.008782117363519</v>
       </c>
       <c r="M23">
-        <v>0.7871952526090549</v>
+        <v>1.000197677982595</v>
       </c>
       <c r="N23">
-        <v>0.8625310317938062</v>
+        <v>1.006968501755653</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8710992358631302</v>
+        <v>0.9924776065268317</v>
       </c>
       <c r="D24">
-        <v>0.9146781125117336</v>
+        <v>1.012367170148103</v>
       </c>
       <c r="E24">
-        <v>0.8826275724275162</v>
+        <v>1.002298520206546</v>
       </c>
       <c r="F24">
-        <v>0.8286107381277541</v>
+        <v>0.995683133766452</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9971916620514011</v>
+        <v>1.041805326986369</v>
       </c>
       <c r="J24">
-        <v>0.9046533284816816</v>
+        <v>1.020268331729573</v>
       </c>
       <c r="K24">
-        <v>0.9303898108529884</v>
+        <v>1.026180530273845</v>
       </c>
       <c r="L24">
-        <v>0.8990854783846893</v>
+        <v>1.016285391133216</v>
       </c>
       <c r="M24">
-        <v>0.8465059499012815</v>
+        <v>1.009786484906398</v>
       </c>
       <c r="N24">
-        <v>0.9059380399733127</v>
+        <v>1.00939609268169</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9131344563727175</v>
+        <v>1.003292311092795</v>
       </c>
       <c r="D25">
-        <v>0.9471318185014903</v>
+        <v>1.020499354850803</v>
       </c>
       <c r="E25">
-        <v>0.9228715972028365</v>
+        <v>1.012122135835442</v>
       </c>
       <c r="F25">
-        <v>0.8804978601472309</v>
+        <v>1.007842302958984</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010520706644676</v>
+        <v>1.046391737609163</v>
       </c>
       <c r="J25">
-        <v>0.9409858536888309</v>
+        <v>1.027709381574373</v>
       </c>
       <c r="K25">
-        <v>0.9606103141288445</v>
+        <v>1.032787566118734</v>
       </c>
       <c r="L25">
-        <v>0.936798163577038</v>
+        <v>1.024535141260095</v>
       </c>
       <c r="M25">
-        <v>0.8952856989520553</v>
+        <v>1.020320084995333</v>
       </c>
       <c r="N25">
-        <v>0.9423221615336552</v>
+        <v>1.012056766831157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011496087153573</v>
+        <v>1.04063791522011</v>
       </c>
       <c r="D2">
-        <v>1.02668137704173</v>
+        <v>1.042651887187782</v>
       </c>
       <c r="E2">
-        <v>1.019596049074951</v>
+        <v>1.044294540807085</v>
       </c>
       <c r="F2">
-        <v>1.017075215755373</v>
+        <v>1.049810112539466</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049830559581614</v>
+        <v>1.042997334198623</v>
       </c>
       <c r="J2">
-        <v>1.033338306122032</v>
+        <v>1.045723442190164</v>
       </c>
       <c r="K2">
-        <v>1.037781103097478</v>
+        <v>1.045427971016013</v>
       </c>
       <c r="L2">
-        <v>1.030788966894784</v>
+        <v>1.047065994778422</v>
       </c>
       <c r="M2">
-        <v>1.028301682757594</v>
+        <v>1.052566135684847</v>
       </c>
       <c r="N2">
-        <v>1.014066240810724</v>
+        <v>1.019019783251242</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017233271306128</v>
+        <v>1.041786771687153</v>
       </c>
       <c r="D3">
-        <v>1.031010722034549</v>
+        <v>1.043527385752907</v>
       </c>
       <c r="E3">
-        <v>1.024834419919468</v>
+        <v>1.045392491129757</v>
       </c>
       <c r="F3">
-        <v>1.023538475447923</v>
+        <v>1.051181456834945</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052211335954276</v>
+        <v>1.043395302136456</v>
       </c>
       <c r="J3">
-        <v>1.037264915690451</v>
+        <v>1.046517003751703</v>
       </c>
       <c r="K3">
-        <v>1.041261613743314</v>
+        <v>1.046114175405057</v>
       </c>
       <c r="L3">
-        <v>1.035159102439196</v>
+        <v>1.047974405651792</v>
       </c>
       <c r="M3">
-        <v>1.03387878146978</v>
+        <v>1.053748358689667</v>
       </c>
       <c r="N3">
-        <v>1.015465771955025</v>
+        <v>1.019295199737327</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020851484421576</v>
+        <v>1.042529679970808</v>
       </c>
       <c r="D4">
-        <v>1.033743396737505</v>
+        <v>1.044093427959927</v>
       </c>
       <c r="E4">
-        <v>1.028143100157291</v>
+        <v>1.046102809424225</v>
       </c>
       <c r="F4">
-        <v>1.027617837583115</v>
+        <v>1.052068690613659</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053701386124591</v>
+        <v>1.043651254652377</v>
       </c>
       <c r="J4">
-        <v>1.039736439254554</v>
+        <v>1.047029479096298</v>
       </c>
       <c r="K4">
-        <v>1.043450936488199</v>
+        <v>1.046557096049042</v>
       </c>
       <c r="L4">
-        <v>1.037913325667731</v>
+        <v>1.048561490795031</v>
       </c>
       <c r="M4">
-        <v>1.037393985689031</v>
+        <v>1.054512687079787</v>
       </c>
       <c r="N4">
-        <v>1.016345533175094</v>
+        <v>1.019472791575708</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022351065645549</v>
+        <v>1.042841886002412</v>
       </c>
       <c r="D5">
-        <v>1.034876457333417</v>
+        <v>1.044331281872527</v>
       </c>
       <c r="E5">
-        <v>1.029515561920443</v>
+        <v>1.046401397755927</v>
       </c>
       <c r="F5">
-        <v>1.029309362919547</v>
+        <v>1.052441658577999</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054316166780021</v>
+        <v>1.04375848450159</v>
       </c>
       <c r="J5">
-        <v>1.040759574580433</v>
+        <v>1.047244682661075</v>
       </c>
       <c r="K5">
-        <v>1.044356897575313</v>
+        <v>1.046743037619681</v>
       </c>
       <c r="L5">
-        <v>1.039054340080095</v>
+        <v>1.048808130924406</v>
       </c>
       <c r="M5">
-        <v>1.038850399864923</v>
+        <v>1.05483385800038</v>
       </c>
       <c r="N5">
-        <v>1.01670943644375</v>
+        <v>1.01954730279539</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022601618617778</v>
+        <v>1.042894300222977</v>
       </c>
       <c r="D6">
-        <v>1.035065798528053</v>
+        <v>1.044371212151068</v>
       </c>
       <c r="E6">
-        <v>1.029744942946812</v>
+        <v>1.04645153036261</v>
       </c>
       <c r="F6">
-        <v>1.029592035619703</v>
+        <v>1.052504280156317</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054418721221325</v>
+        <v>1.043776467037336</v>
       </c>
       <c r="J6">
-        <v>1.040930450642787</v>
+        <v>1.047280802185388</v>
       </c>
       <c r="K6">
-        <v>1.044508183065671</v>
+        <v>1.0467742426756</v>
       </c>
       <c r="L6">
-        <v>1.039244953465346</v>
+        <v>1.048849532928719</v>
       </c>
       <c r="M6">
-        <v>1.039093712961967</v>
+        <v>1.054887775130976</v>
       </c>
       <c r="N6">
-        <v>1.016770195139149</v>
+        <v>1.019559804863847</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020871605142551</v>
+        <v>1.042533852123083</v>
       </c>
       <c r="D7">
-        <v>1.033758597776487</v>
+        <v>1.044096606607652</v>
       </c>
       <c r="E7">
-        <v>1.028161510684369</v>
+        <v>1.046106799290211</v>
       </c>
       <c r="F7">
-        <v>1.027640530433169</v>
+        <v>1.052073674324723</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053709646007826</v>
+        <v>1.043652688925988</v>
       </c>
       <c r="J7">
-        <v>1.039750172012843</v>
+        <v>1.047032355602588</v>
       </c>
       <c r="K7">
-        <v>1.043463097914865</v>
+        <v>1.046559581638763</v>
       </c>
       <c r="L7">
-        <v>1.037928637259184</v>
+        <v>1.048564787080712</v>
       </c>
       <c r="M7">
-        <v>1.037413529069044</v>
+        <v>1.054516979178214</v>
       </c>
       <c r="N7">
-        <v>1.016350418741408</v>
+        <v>1.019473787780977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01345512098386</v>
+        <v>1.041026276949729</v>
       </c>
       <c r="D8">
-        <v>1.028159155312423</v>
+        <v>1.042947862582932</v>
       </c>
       <c r="E8">
-        <v>1.021383666703354</v>
+        <v>1.044665625809464</v>
       </c>
       <c r="F8">
-        <v>1.019281521222126</v>
+        <v>1.050273590971796</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050645883037824</v>
+        <v>1.043132152636549</v>
       </c>
       <c r="J8">
-        <v>1.034680090234656</v>
+        <v>1.045991840320402</v>
       </c>
       <c r="K8">
-        <v>1.038970738048903</v>
+        <v>1.04566010522986</v>
       </c>
       <c r="L8">
-        <v>1.032281568258662</v>
+        <v>1.047373145814164</v>
       </c>
       <c r="M8">
-        <v>1.03020649560647</v>
+        <v>1.05296580943402</v>
       </c>
       <c r="N8">
-        <v>1.014544713629464</v>
+        <v>1.019112990308743</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9996157935885623</v>
+        <v>1.03836598161752</v>
       </c>
       <c r="D9">
-        <v>1.017732460425822</v>
+        <v>1.040920038119246</v>
       </c>
       <c r="E9">
-        <v>1.008778897860276</v>
+        <v>1.042125042994611</v>
       </c>
       <c r="F9">
-        <v>1.003707407684328</v>
+        <v>1.047100575786047</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044838851404575</v>
+        <v>1.042202925753397</v>
       </c>
       <c r="J9">
-        <v>1.025182126472939</v>
+        <v>1.044150513465263</v>
       </c>
       <c r="K9">
-        <v>1.030544245987072</v>
+        <v>1.044066649191878</v>
       </c>
       <c r="L9">
-        <v>1.021731131378261</v>
+        <v>1.045267768705913</v>
       </c>
       <c r="M9">
-        <v>1.016740619803467</v>
+        <v>1.050227362248472</v>
       </c>
       <c r="N9">
-        <v>1.011153568538218</v>
+        <v>1.01847244940516</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9897954849842168</v>
+        <v>1.03658979951907</v>
       </c>
       <c r="D10">
-        <v>1.010353635901966</v>
+        <v>1.039565685508056</v>
       </c>
       <c r="E10">
-        <v>0.9998671839551027</v>
+        <v>1.040430523536438</v>
       </c>
       <c r="F10">
-        <v>0.9926691452530598</v>
+        <v>1.044984340633691</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040659694286435</v>
+        <v>1.041575342467073</v>
       </c>
       <c r="J10">
-        <v>1.018419904967635</v>
+        <v>1.042917635034224</v>
       </c>
       <c r="K10">
-        <v>1.024538435125112</v>
+        <v>1.042998592496262</v>
       </c>
       <c r="L10">
-        <v>1.014238836850784</v>
+        <v>1.043860366701022</v>
       </c>
       <c r="M10">
-        <v>1.007172034163405</v>
+        <v>1.048398143368051</v>
       </c>
       <c r="N10">
-        <v>1.008734597725179</v>
+        <v>1.018042195851316</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9853830844925274</v>
+        <v>1.035820035065357</v>
       </c>
       <c r="D11">
-        <v>1.007044166603331</v>
+        <v>1.038978636942413</v>
       </c>
       <c r="E11">
-        <v>0.9958716122917025</v>
+        <v>1.039696567668038</v>
       </c>
       <c r="F11">
-        <v>0.9877117638731244</v>
+        <v>1.044067732256176</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038768672764498</v>
+        <v>1.041301660134387</v>
       </c>
       <c r="J11">
-        <v>1.015376845482748</v>
+        <v>1.042382503291301</v>
       </c>
       <c r="K11">
-        <v>1.021834451777938</v>
+        <v>1.042534733205166</v>
       </c>
       <c r="L11">
-        <v>1.010871806185163</v>
+        <v>1.043250021310869</v>
       </c>
       <c r="M11">
-        <v>1.002869199570366</v>
+        <v>1.047605182816228</v>
       </c>
       <c r="N11">
-        <v>1.007645220286931</v>
+        <v>1.017855121442855</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9837182317882335</v>
+        <v>1.035534007634964</v>
       </c>
       <c r="D12">
-        <v>1.005796467815837</v>
+        <v>1.038760488846125</v>
       </c>
       <c r="E12">
-        <v>0.9943654036188669</v>
+        <v>1.039423909148875</v>
       </c>
       <c r="F12">
-        <v>0.9858415429925665</v>
+        <v>1.043727219489562</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03805323068727</v>
+        <v>1.041199710660387</v>
       </c>
       <c r="J12">
-        <v>1.014228015188191</v>
+        <v>1.042183536478319</v>
       </c>
       <c r="K12">
-        <v>1.020813452888824</v>
+        <v>1.042362225988933</v>
       </c>
       <c r="L12">
-        <v>1.009601355666035</v>
+        <v>1.04302317021444</v>
       </c>
       <c r="M12">
-        <v>1.001245118343796</v>
+        <v>1.047310503903244</v>
       </c>
       <c r="N12">
-        <v>1.007233854568444</v>
+        <v>1.0177855172843</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9840765514107099</v>
+        <v>1.035595366176127</v>
       </c>
       <c r="D13">
-        <v>1.006064957812339</v>
+        <v>1.03880728654186</v>
       </c>
       <c r="E13">
-        <v>0.9946895157360008</v>
+        <v>1.039482396924717</v>
       </c>
       <c r="F13">
-        <v>0.986244052841344</v>
+        <v>1.043800262669004</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038207298924655</v>
+        <v>1.041221592383633</v>
       </c>
       <c r="J13">
-        <v>1.014475301563284</v>
+        <v>1.04222622438862</v>
       </c>
       <c r="K13">
-        <v>1.021033231204034</v>
+        <v>1.042399238861699</v>
       </c>
       <c r="L13">
-        <v>1.009874789833054</v>
+        <v>1.043071836982757</v>
       </c>
       <c r="M13">
-        <v>1.001594689234836</v>
+        <v>1.047373719831483</v>
       </c>
       <c r="N13">
-        <v>1.007322405329237</v>
+        <v>1.01780045288678</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9852460066652754</v>
+        <v>1.035796394057578</v>
       </c>
       <c r="D14">
-        <v>1.006941414623879</v>
+        <v>1.038960606639123</v>
       </c>
       <c r="E14">
-        <v>0.9957475683493809</v>
+        <v>1.039674030347335</v>
       </c>
       <c r="F14">
-        <v>0.9875577720075052</v>
+        <v>1.044039586276474</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038709804872368</v>
+        <v>1.041293238914917</v>
       </c>
       <c r="J14">
-        <v>1.015282267806823</v>
+        <v>1.042366060621215</v>
       </c>
       <c r="K14">
-        <v>1.021750401348549</v>
+        <v>1.042520477980688</v>
       </c>
       <c r="L14">
-        <v>1.010767202153776</v>
+        <v>1.043231272628181</v>
       </c>
       <c r="M14">
-        <v>1.002735490501486</v>
+        <v>1.047580827401027</v>
       </c>
       <c r="N14">
-        <v>1.007611356384815</v>
+        <v>1.01784937031836</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9859630579291933</v>
+        <v>1.035920240291676</v>
       </c>
       <c r="D15">
-        <v>1.007478949657239</v>
+        <v>1.039055059967309</v>
       </c>
       <c r="E15">
-        <v>0.9963964958494458</v>
+        <v>1.039792097377467</v>
       </c>
       <c r="F15">
-        <v>0.9883633103266171</v>
+        <v>1.04418703555646</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039017663135522</v>
+        <v>1.041337344027991</v>
       </c>
       <c r="J15">
-        <v>1.015776975709643</v>
+        <v>1.04245219244251</v>
       </c>
       <c r="K15">
-        <v>1.022190037199397</v>
+        <v>1.042595149639197</v>
       </c>
       <c r="L15">
-        <v>1.0113143829148</v>
+        <v>1.043329487369373</v>
       </c>
       <c r="M15">
-        <v>1.003434896465955</v>
+        <v>1.047708414816071</v>
       </c>
       <c r="N15">
-        <v>1.0077884845893</v>
+        <v>1.017879494525859</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9900847953428609</v>
+        <v>1.036640871999814</v>
       </c>
       <c r="D16">
-        <v>1.010570762272696</v>
+        <v>1.039604633137257</v>
       </c>
       <c r="E16">
-        <v>1.000129348612963</v>
+        <v>1.040479229019034</v>
       </c>
       <c r="F16">
-        <v>0.9929942290974205</v>
+        <v>1.045045167009821</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040783413255502</v>
+        <v>1.041593465015284</v>
       </c>
       <c r="J16">
-        <v>1.018619338317447</v>
+        <v>1.042953122703017</v>
       </c>
       <c r="K16">
-        <v>1.024715620717186</v>
+        <v>1.043029348042841</v>
       </c>
       <c r="L16">
-        <v>1.014459597144317</v>
+        <v>1.043900853548088</v>
       </c>
       <c r="M16">
-        <v>1.007454084069867</v>
+        <v>1.048450750371114</v>
       </c>
       <c r="N16">
-        <v>1.008805977404823</v>
+        <v>1.018054595065447</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9926261419097653</v>
+        <v>1.037092725125418</v>
       </c>
       <c r="D17">
-        <v>1.012478719053119</v>
+        <v>1.039949203037414</v>
       </c>
       <c r="E17">
-        <v>1.002433224601584</v>
+        <v>1.040910188895203</v>
       </c>
       <c r="F17">
-        <v>0.9958500630151502</v>
+        <v>1.045583376646124</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041868683147347</v>
+        <v>1.041753604274731</v>
       </c>
       <c r="J17">
-        <v>1.020370665822586</v>
+        <v>1.043266997217458</v>
       </c>
       <c r="K17">
-        <v>1.026271432481285</v>
+        <v>1.043301337833944</v>
       </c>
       <c r="L17">
-        <v>1.016398724660884</v>
+        <v>1.044259005948855</v>
       </c>
       <c r="M17">
-        <v>1.009931249031277</v>
+        <v>1.048916155426902</v>
       </c>
       <c r="N17">
-        <v>1.00943270943087</v>
+        <v>1.018164224068805</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9940931480771138</v>
+        <v>1.037356219335366</v>
       </c>
       <c r="D18">
-        <v>1.013580650187144</v>
+        <v>1.040150126545109</v>
       </c>
       <c r="E18">
-        <v>1.003763954186663</v>
+        <v>1.04116153961784</v>
       </c>
       <c r="F18">
-        <v>0.9974988279020199</v>
+        <v>1.045897279950945</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042493905088586</v>
+        <v>1.041846824200055</v>
       </c>
       <c r="J18">
-        <v>1.021381181576533</v>
+        <v>1.043449950822688</v>
       </c>
       <c r="K18">
-        <v>1.027169010336106</v>
+        <v>1.043459851461105</v>
       </c>
       <c r="L18">
-        <v>1.017518031638037</v>
+        <v>1.044467820472281</v>
       </c>
       <c r="M18">
-        <v>1.011360874952544</v>
+        <v>1.049187532027268</v>
       </c>
       <c r="N18">
-        <v>1.00979425485064</v>
+        <v>1.018228094375889</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9945908136545329</v>
+        <v>1.037446053262548</v>
       </c>
       <c r="D19">
-        <v>1.013954558662442</v>
+        <v>1.040218626420096</v>
       </c>
       <c r="E19">
-        <v>1.004215523668607</v>
+        <v>1.041247240234934</v>
       </c>
       <c r="F19">
-        <v>0.9980581925280437</v>
+        <v>1.046004308696599</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042705790016258</v>
+        <v>1.041878578166548</v>
       </c>
       <c r="J19">
-        <v>1.021723910223574</v>
+        <v>1.043512312277001</v>
       </c>
       <c r="K19">
-        <v>1.027473412912069</v>
+        <v>1.043513877922488</v>
       </c>
       <c r="L19">
-        <v>1.017897731184626</v>
+        <v>1.044539005665312</v>
       </c>
       <c r="M19">
-        <v>1.011845804583986</v>
+        <v>1.049280049899295</v>
       </c>
       <c r="N19">
-        <v>1.009916863274939</v>
+        <v>1.018249859887866</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9923550765609604</v>
+        <v>1.037044252207186</v>
       </c>
       <c r="D20">
-        <v>1.012275154222088</v>
+        <v>1.039912239985531</v>
       </c>
       <c r="E20">
-        <v>1.002187404260526</v>
+        <v>1.040863953152511</v>
       </c>
       <c r="F20">
-        <v>0.9955454315655793</v>
+        <v>1.045525634486914</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041753056032624</v>
+        <v>1.041736442155343</v>
       </c>
       <c r="J20">
-        <v>1.020183911637473</v>
+        <v>1.043233334299385</v>
       </c>
       <c r="K20">
-        <v>1.026105540156321</v>
+        <v>1.043272169712773</v>
       </c>
       <c r="L20">
-        <v>1.016191899542083</v>
+        <v>1.044220588877653</v>
       </c>
       <c r="M20">
-        <v>1.009667064060572</v>
+        <v>1.048866230818541</v>
       </c>
       <c r="N20">
-        <v>1.009365885393783</v>
+        <v>1.018152469616626</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9849023615976608</v>
+        <v>1.035737199211203</v>
       </c>
       <c r="D21">
-        <v>1.00668383875316</v>
+        <v>1.038915460244816</v>
       </c>
       <c r="E21">
-        <v>0.9954366206909552</v>
+        <v>1.039617600052091</v>
       </c>
       <c r="F21">
-        <v>0.987171728453874</v>
+        <v>1.043969112673709</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038562195988405</v>
+        <v>1.041272148856875</v>
       </c>
       <c r="J21">
-        <v>1.015045157616583</v>
+        <v>1.042324887733955</v>
       </c>
       <c r="K21">
-        <v>1.021539680606072</v>
+        <v>1.042484781868283</v>
       </c>
       <c r="L21">
-        <v>1.01050496652687</v>
+        <v>1.043184326728686</v>
       </c>
       <c r="M21">
-        <v>1.002400281394255</v>
+        <v>1.047519843221733</v>
       </c>
       <c r="N21">
-        <v>1.007526456661216</v>
+        <v>1.017834968570598</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9800656995781269</v>
+        <v>1.03491480798926</v>
       </c>
       <c r="D22">
-        <v>1.003061114732146</v>
+        <v>1.038288211660939</v>
       </c>
       <c r="E22">
-        <v>0.9910635382806277</v>
+        <v>1.03883376707647</v>
       </c>
       <c r="F22">
-        <v>0.9817388339235883</v>
+        <v>1.042990211441491</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036480116214209</v>
+        <v>1.040978541215574</v>
       </c>
       <c r="J22">
-        <v>1.011706466380408</v>
+        <v>1.041752581954865</v>
       </c>
       <c r="K22">
-        <v>1.018572173275827</v>
+        <v>1.041988508717161</v>
       </c>
       <c r="L22">
-        <v>1.006814131546922</v>
+        <v>1.042531967204916</v>
       </c>
       <c r="M22">
-        <v>0.9976809406278664</v>
+        <v>1.046672515483853</v>
       </c>
       <c r="N22">
-        <v>1.006330800707048</v>
+        <v>1.017634669422253</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9826446658215831</v>
+        <v>1.035350830416913</v>
       </c>
       <c r="D23">
-        <v>1.004992197870186</v>
+        <v>1.038620778996633</v>
       </c>
       <c r="E23">
-        <v>0.99339453439789</v>
+        <v>1.03924931149128</v>
       </c>
       <c r="F23">
-        <v>0.9846356095283312</v>
+        <v>1.043509170889892</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03759134565466</v>
+        <v>1.041134348525566</v>
       </c>
       <c r="J23">
-        <v>1.013487027367289</v>
+        <v>1.042056079684879</v>
       </c>
       <c r="K23">
-        <v>1.0201548677611</v>
+        <v>1.042251707757078</v>
       </c>
       <c r="L23">
-        <v>1.008782117363519</v>
+        <v>1.042877873685893</v>
       </c>
       <c r="M23">
-        <v>1.000197677982595</v>
+        <v>1.047121776937543</v>
       </c>
       <c r="N23">
-        <v>1.006968501755653</v>
+        <v>1.017740915792184</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9924776065268317</v>
+        <v>1.03706615522976</v>
       </c>
       <c r="D24">
-        <v>1.012367170148103</v>
+        <v>1.039928942177337</v>
       </c>
       <c r="E24">
-        <v>1.002298520206546</v>
+        <v>1.040884845158441</v>
       </c>
       <c r="F24">
-        <v>0.995683133766452</v>
+        <v>1.045551725760333</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041805326986369</v>
+        <v>1.04174419755462</v>
       </c>
       <c r="J24">
-        <v>1.020268331729573</v>
+        <v>1.043248545506017</v>
       </c>
       <c r="K24">
-        <v>1.026180530273845</v>
+        <v>1.043285349943054</v>
       </c>
       <c r="L24">
-        <v>1.016285391133216</v>
+        <v>1.044237948175199</v>
       </c>
       <c r="M24">
-        <v>1.009786484906398</v>
+        <v>1.048888789865895</v>
       </c>
       <c r="N24">
-        <v>1.00939609268169</v>
+        <v>1.01815778117746</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003292311092795</v>
+        <v>1.039054189802779</v>
       </c>
       <c r="D25">
-        <v>1.020499354850803</v>
+        <v>1.041444710548177</v>
       </c>
       <c r="E25">
-        <v>1.012122135835442</v>
+        <v>1.042781978436634</v>
       </c>
       <c r="F25">
-        <v>1.007842302958984</v>
+        <v>1.047921019216391</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046391737609163</v>
+        <v>1.042444577163544</v>
       </c>
       <c r="J25">
-        <v>1.027709381574373</v>
+        <v>1.044627473744024</v>
       </c>
       <c r="K25">
-        <v>1.032787566118734</v>
+        <v>1.044479605142367</v>
       </c>
       <c r="L25">
-        <v>1.024535141260095</v>
+        <v>1.045812725808853</v>
       </c>
       <c r="M25">
-        <v>1.020320084995333</v>
+        <v>1.05093593655524</v>
       </c>
       <c r="N25">
-        <v>1.012056766831157</v>
+        <v>1.018638611805088</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04063791522011</v>
+        <v>1.011496087153574</v>
       </c>
       <c r="D2">
-        <v>1.042651887187782</v>
+        <v>1.026681377041732</v>
       </c>
       <c r="E2">
-        <v>1.044294540807085</v>
+        <v>1.019596049074952</v>
       </c>
       <c r="F2">
-        <v>1.049810112539466</v>
+        <v>1.017075215755375</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042997334198623</v>
+        <v>1.049830559581615</v>
       </c>
       <c r="J2">
-        <v>1.045723442190164</v>
+        <v>1.033338306122033</v>
       </c>
       <c r="K2">
-        <v>1.045427971016013</v>
+        <v>1.037781103097479</v>
       </c>
       <c r="L2">
-        <v>1.047065994778422</v>
+        <v>1.030788966894785</v>
       </c>
       <c r="M2">
-        <v>1.052566135684847</v>
+        <v>1.028301682757595</v>
       </c>
       <c r="N2">
-        <v>1.019019783251242</v>
+        <v>1.014066240810724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041786771687153</v>
+        <v>1.017233271306128</v>
       </c>
       <c r="D3">
-        <v>1.043527385752907</v>
+        <v>1.031010722034549</v>
       </c>
       <c r="E3">
-        <v>1.045392491129757</v>
+        <v>1.024834419919467</v>
       </c>
       <c r="F3">
-        <v>1.051181456834945</v>
+        <v>1.023538475447922</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043395302136456</v>
+        <v>1.052211335954276</v>
       </c>
       <c r="J3">
-        <v>1.046517003751703</v>
+        <v>1.03726491569045</v>
       </c>
       <c r="K3">
-        <v>1.046114175405057</v>
+        <v>1.041261613743314</v>
       </c>
       <c r="L3">
-        <v>1.047974405651792</v>
+        <v>1.035159102439196</v>
       </c>
       <c r="M3">
-        <v>1.053748358689667</v>
+        <v>1.03387878146978</v>
       </c>
       <c r="N3">
-        <v>1.019295199737327</v>
+        <v>1.015465771955025</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042529679970808</v>
+        <v>1.020851484421576</v>
       </c>
       <c r="D4">
-        <v>1.044093427959927</v>
+        <v>1.033743396737505</v>
       </c>
       <c r="E4">
-        <v>1.046102809424225</v>
+        <v>1.028143100157291</v>
       </c>
       <c r="F4">
-        <v>1.052068690613659</v>
+        <v>1.027617837583115</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043651254652377</v>
+        <v>1.053701386124591</v>
       </c>
       <c r="J4">
-        <v>1.047029479096298</v>
+        <v>1.039736439254553</v>
       </c>
       <c r="K4">
-        <v>1.046557096049042</v>
+        <v>1.043450936488198</v>
       </c>
       <c r="L4">
-        <v>1.048561490795031</v>
+        <v>1.03791332566773</v>
       </c>
       <c r="M4">
-        <v>1.054512687079787</v>
+        <v>1.037393985689031</v>
       </c>
       <c r="N4">
-        <v>1.019472791575708</v>
+        <v>1.016345533175094</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042841886002412</v>
+        <v>1.022351065645547</v>
       </c>
       <c r="D5">
-        <v>1.044331281872527</v>
+        <v>1.034876457333416</v>
       </c>
       <c r="E5">
-        <v>1.046401397755927</v>
+        <v>1.029515561920442</v>
       </c>
       <c r="F5">
-        <v>1.052441658577999</v>
+        <v>1.029309362919546</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04375848450159</v>
+        <v>1.054316166780021</v>
       </c>
       <c r="J5">
-        <v>1.047244682661075</v>
+        <v>1.040759574580432</v>
       </c>
       <c r="K5">
-        <v>1.046743037619681</v>
+        <v>1.044356897575312</v>
       </c>
       <c r="L5">
-        <v>1.048808130924406</v>
+        <v>1.039054340080094</v>
       </c>
       <c r="M5">
-        <v>1.05483385800038</v>
+        <v>1.038850399864922</v>
       </c>
       <c r="N5">
-        <v>1.01954730279539</v>
+        <v>1.01670943644375</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042894300222977</v>
+        <v>1.022601618617777</v>
       </c>
       <c r="D6">
-        <v>1.044371212151068</v>
+        <v>1.035065798528052</v>
       </c>
       <c r="E6">
-        <v>1.04645153036261</v>
+        <v>1.029744942946812</v>
       </c>
       <c r="F6">
-        <v>1.052504280156317</v>
+        <v>1.029592035619703</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043776467037336</v>
+        <v>1.054418721221325</v>
       </c>
       <c r="J6">
-        <v>1.047280802185388</v>
+        <v>1.040930450642786</v>
       </c>
       <c r="K6">
-        <v>1.0467742426756</v>
+        <v>1.04450818306567</v>
       </c>
       <c r="L6">
-        <v>1.048849532928719</v>
+        <v>1.039244953465346</v>
       </c>
       <c r="M6">
-        <v>1.054887775130976</v>
+        <v>1.039093712961966</v>
       </c>
       <c r="N6">
-        <v>1.019559804863847</v>
+        <v>1.016770195139149</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042533852123083</v>
+        <v>1.020871605142552</v>
       </c>
       <c r="D7">
-        <v>1.044096606607652</v>
+        <v>1.033758597776488</v>
       </c>
       <c r="E7">
-        <v>1.046106799290211</v>
+        <v>1.028161510684371</v>
       </c>
       <c r="F7">
-        <v>1.052073674324723</v>
+        <v>1.02764053043317</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043652688925988</v>
+        <v>1.053709646007827</v>
       </c>
       <c r="J7">
-        <v>1.047032355602588</v>
+        <v>1.039750172012845</v>
       </c>
       <c r="K7">
-        <v>1.046559581638763</v>
+        <v>1.043463097914866</v>
       </c>
       <c r="L7">
-        <v>1.048564787080712</v>
+        <v>1.037928637259185</v>
       </c>
       <c r="M7">
-        <v>1.054516979178214</v>
+        <v>1.037413529069045</v>
       </c>
       <c r="N7">
-        <v>1.019473787780977</v>
+        <v>1.016350418741408</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041026276949729</v>
+        <v>1.013455120983859</v>
       </c>
       <c r="D8">
-        <v>1.042947862582932</v>
+        <v>1.028159155312421</v>
       </c>
       <c r="E8">
-        <v>1.044665625809464</v>
+        <v>1.021383666703353</v>
       </c>
       <c r="F8">
-        <v>1.050273590971796</v>
+        <v>1.019281521222126</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043132152636549</v>
+        <v>1.050645883037823</v>
       </c>
       <c r="J8">
-        <v>1.045991840320402</v>
+        <v>1.034680090234656</v>
       </c>
       <c r="K8">
-        <v>1.04566010522986</v>
+        <v>1.038970738048903</v>
       </c>
       <c r="L8">
-        <v>1.047373145814164</v>
+        <v>1.032281568258662</v>
       </c>
       <c r="M8">
-        <v>1.05296580943402</v>
+        <v>1.030206495606468</v>
       </c>
       <c r="N8">
-        <v>1.019112990308743</v>
+        <v>1.014544713629464</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03836598161752</v>
+        <v>0.9996157935885606</v>
       </c>
       <c r="D9">
-        <v>1.040920038119246</v>
+        <v>1.01773246042582</v>
       </c>
       <c r="E9">
-        <v>1.042125042994611</v>
+        <v>1.008778897860274</v>
       </c>
       <c r="F9">
-        <v>1.047100575786047</v>
+        <v>1.003707407684327</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042202925753397</v>
+        <v>1.044838851404573</v>
       </c>
       <c r="J9">
-        <v>1.044150513465263</v>
+        <v>1.025182126472937</v>
       </c>
       <c r="K9">
-        <v>1.044066649191878</v>
+        <v>1.030544245987071</v>
       </c>
       <c r="L9">
-        <v>1.045267768705913</v>
+        <v>1.02173113137826</v>
       </c>
       <c r="M9">
-        <v>1.050227362248472</v>
+        <v>1.016740619803465</v>
       </c>
       <c r="N9">
-        <v>1.01847244940516</v>
+        <v>1.011153568538218</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03658979951907</v>
+        <v>0.9897954849842178</v>
       </c>
       <c r="D10">
-        <v>1.039565685508056</v>
+        <v>1.010353635901967</v>
       </c>
       <c r="E10">
-        <v>1.040430523536438</v>
+        <v>0.9998671839551037</v>
       </c>
       <c r="F10">
-        <v>1.044984340633691</v>
+        <v>0.9926691452530608</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041575342467073</v>
+        <v>1.040659694286435</v>
       </c>
       <c r="J10">
-        <v>1.042917635034224</v>
+        <v>1.018419904967635</v>
       </c>
       <c r="K10">
-        <v>1.042998592496262</v>
+        <v>1.024538435125113</v>
       </c>
       <c r="L10">
-        <v>1.043860366701022</v>
+        <v>1.014238836850784</v>
       </c>
       <c r="M10">
-        <v>1.048398143368051</v>
+        <v>1.007172034163406</v>
       </c>
       <c r="N10">
-        <v>1.018042195851316</v>
+        <v>1.008734597725179</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.035820035065357</v>
+        <v>0.9853830844925275</v>
       </c>
       <c r="D11">
-        <v>1.038978636942413</v>
+        <v>1.007044166603331</v>
       </c>
       <c r="E11">
-        <v>1.039696567668038</v>
+        <v>0.9958716122917028</v>
       </c>
       <c r="F11">
-        <v>1.044067732256176</v>
+        <v>0.9877117638731243</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041301660134387</v>
+        <v>1.038768672764498</v>
       </c>
       <c r="J11">
-        <v>1.042382503291301</v>
+        <v>1.015376845482748</v>
       </c>
       <c r="K11">
-        <v>1.042534733205166</v>
+        <v>1.021834451777938</v>
       </c>
       <c r="L11">
-        <v>1.043250021310869</v>
+        <v>1.010871806185163</v>
       </c>
       <c r="M11">
-        <v>1.047605182816228</v>
+        <v>1.002869199570365</v>
       </c>
       <c r="N11">
-        <v>1.017855121442855</v>
+        <v>1.007645220286931</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035534007634964</v>
+        <v>0.9837182317882337</v>
       </c>
       <c r="D12">
-        <v>1.038760488846125</v>
+        <v>1.005796467815837</v>
       </c>
       <c r="E12">
-        <v>1.039423909148875</v>
+        <v>0.9943654036188673</v>
       </c>
       <c r="F12">
-        <v>1.043727219489562</v>
+        <v>0.9858415429925667</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041199710660387</v>
+        <v>1.03805323068727</v>
       </c>
       <c r="J12">
-        <v>1.042183536478319</v>
+        <v>1.014228015188191</v>
       </c>
       <c r="K12">
-        <v>1.042362225988933</v>
+        <v>1.020813452888824</v>
       </c>
       <c r="L12">
-        <v>1.04302317021444</v>
+        <v>1.009601355666035</v>
       </c>
       <c r="M12">
-        <v>1.047310503903244</v>
+        <v>1.001245118343796</v>
       </c>
       <c r="N12">
-        <v>1.0177855172843</v>
+        <v>1.007233854568444</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035595366176127</v>
+        <v>0.984076551410709</v>
       </c>
       <c r="D13">
-        <v>1.03880728654186</v>
+        <v>1.006064957812338</v>
       </c>
       <c r="E13">
-        <v>1.039482396924717</v>
+        <v>0.9946895157360003</v>
       </c>
       <c r="F13">
-        <v>1.043800262669004</v>
+        <v>0.9862440528413428</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041221592383633</v>
+        <v>1.038207298924655</v>
       </c>
       <c r="J13">
-        <v>1.04222622438862</v>
+        <v>1.014475301563283</v>
       </c>
       <c r="K13">
-        <v>1.042399238861699</v>
+        <v>1.021033231204033</v>
       </c>
       <c r="L13">
-        <v>1.043071836982757</v>
+        <v>1.009874789833053</v>
       </c>
       <c r="M13">
-        <v>1.047373719831483</v>
+        <v>1.001594689234835</v>
       </c>
       <c r="N13">
-        <v>1.01780045288678</v>
+        <v>1.007322405329236</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035796394057578</v>
+        <v>0.9852460066652768</v>
       </c>
       <c r="D14">
-        <v>1.038960606639123</v>
+        <v>1.00694141462388</v>
       </c>
       <c r="E14">
-        <v>1.039674030347335</v>
+        <v>0.9957475683493824</v>
       </c>
       <c r="F14">
-        <v>1.044039586276474</v>
+        <v>0.9875577720075067</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041293238914917</v>
+        <v>1.038709804872369</v>
       </c>
       <c r="J14">
-        <v>1.042366060621215</v>
+        <v>1.015282267806825</v>
       </c>
       <c r="K14">
-        <v>1.042520477980688</v>
+        <v>1.02175040134855</v>
       </c>
       <c r="L14">
-        <v>1.043231272628181</v>
+        <v>1.010767202153778</v>
       </c>
       <c r="M14">
-        <v>1.047580827401027</v>
+        <v>1.002735490501488</v>
       </c>
       <c r="N14">
-        <v>1.01784937031836</v>
+        <v>1.007611356384815</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035920240291676</v>
+        <v>0.9859630579291944</v>
       </c>
       <c r="D15">
-        <v>1.039055059967309</v>
+        <v>1.00747894965724</v>
       </c>
       <c r="E15">
-        <v>1.039792097377467</v>
+        <v>0.996396495849447</v>
       </c>
       <c r="F15">
-        <v>1.04418703555646</v>
+        <v>0.9883633103266182</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041337344027991</v>
+        <v>1.039017663135523</v>
       </c>
       <c r="J15">
-        <v>1.04245219244251</v>
+        <v>1.015776975709644</v>
       </c>
       <c r="K15">
-        <v>1.042595149639197</v>
+        <v>1.022190037199398</v>
       </c>
       <c r="L15">
-        <v>1.043329487369373</v>
+        <v>1.011314382914801</v>
       </c>
       <c r="M15">
-        <v>1.047708414816071</v>
+        <v>1.003434896465956</v>
       </c>
       <c r="N15">
-        <v>1.017879494525859</v>
+        <v>1.007788484589301</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036640871999814</v>
+        <v>0.9900847953428629</v>
       </c>
       <c r="D16">
-        <v>1.039604633137257</v>
+        <v>1.010570762272698</v>
       </c>
       <c r="E16">
-        <v>1.040479229019034</v>
+        <v>1.000129348612965</v>
       </c>
       <c r="F16">
-        <v>1.045045167009821</v>
+        <v>0.9929942290974221</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041593465015284</v>
+        <v>1.040783413255503</v>
       </c>
       <c r="J16">
-        <v>1.042953122703017</v>
+        <v>1.018619338317449</v>
       </c>
       <c r="K16">
-        <v>1.043029348042841</v>
+        <v>1.024715620717187</v>
       </c>
       <c r="L16">
-        <v>1.043900853548088</v>
+        <v>1.014459597144319</v>
       </c>
       <c r="M16">
-        <v>1.048450750371114</v>
+        <v>1.007454084069868</v>
       </c>
       <c r="N16">
-        <v>1.018054595065447</v>
+        <v>1.008805977404823</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037092725125418</v>
+        <v>0.9926261419097644</v>
       </c>
       <c r="D17">
-        <v>1.039949203037414</v>
+        <v>1.012478719053118</v>
       </c>
       <c r="E17">
-        <v>1.040910188895203</v>
+        <v>1.002433224601583</v>
       </c>
       <c r="F17">
-        <v>1.045583376646124</v>
+        <v>0.9958500630151493</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041753604274731</v>
+        <v>1.041868683147346</v>
       </c>
       <c r="J17">
-        <v>1.043266997217458</v>
+        <v>1.020370665822585</v>
       </c>
       <c r="K17">
-        <v>1.043301337833944</v>
+        <v>1.026271432481284</v>
       </c>
       <c r="L17">
-        <v>1.044259005948855</v>
+        <v>1.016398724660882</v>
       </c>
       <c r="M17">
-        <v>1.048916155426902</v>
+        <v>1.009931249031276</v>
       </c>
       <c r="N17">
-        <v>1.018164224068805</v>
+        <v>1.00943270943087</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037356219335366</v>
+        <v>0.9940931480771141</v>
       </c>
       <c r="D18">
-        <v>1.040150126545109</v>
+        <v>1.013580650187145</v>
       </c>
       <c r="E18">
-        <v>1.04116153961784</v>
+        <v>1.003763954186664</v>
       </c>
       <c r="F18">
-        <v>1.045897279950945</v>
+        <v>0.9974988279020197</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041846824200055</v>
+        <v>1.042493905088586</v>
       </c>
       <c r="J18">
-        <v>1.043449950822688</v>
+        <v>1.021381181576534</v>
       </c>
       <c r="K18">
-        <v>1.043459851461105</v>
+        <v>1.027169010336107</v>
       </c>
       <c r="L18">
-        <v>1.044467820472281</v>
+        <v>1.017518031638037</v>
       </c>
       <c r="M18">
-        <v>1.049187532027268</v>
+        <v>1.011360874952544</v>
       </c>
       <c r="N18">
-        <v>1.018228094375889</v>
+        <v>1.00979425485064</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037446053262548</v>
+        <v>0.9945908136545324</v>
       </c>
       <c r="D19">
-        <v>1.040218626420096</v>
+        <v>1.013954558662441</v>
       </c>
       <c r="E19">
-        <v>1.041247240234934</v>
+        <v>1.004215523668607</v>
       </c>
       <c r="F19">
-        <v>1.046004308696599</v>
+        <v>0.9980581925280434</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041878578166548</v>
+        <v>1.042705790016257</v>
       </c>
       <c r="J19">
-        <v>1.043512312277001</v>
+        <v>1.021723910223574</v>
       </c>
       <c r="K19">
-        <v>1.043513877922488</v>
+        <v>1.027473412912068</v>
       </c>
       <c r="L19">
-        <v>1.044539005665312</v>
+        <v>1.017897731184625</v>
       </c>
       <c r="M19">
-        <v>1.049280049899295</v>
+        <v>1.011845804583986</v>
       </c>
       <c r="N19">
-        <v>1.018249859887866</v>
+        <v>1.009916863274939</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037044252207186</v>
+        <v>0.9923550765609599</v>
       </c>
       <c r="D20">
-        <v>1.039912239985531</v>
+        <v>1.012275154222087</v>
       </c>
       <c r="E20">
-        <v>1.040863953152511</v>
+        <v>1.002187404260525</v>
       </c>
       <c r="F20">
-        <v>1.045525634486914</v>
+        <v>0.9955454315655783</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041736442155343</v>
+        <v>1.041753056032624</v>
       </c>
       <c r="J20">
-        <v>1.043233334299385</v>
+        <v>1.020183911637472</v>
       </c>
       <c r="K20">
-        <v>1.043272169712773</v>
+        <v>1.026105540156321</v>
       </c>
       <c r="L20">
-        <v>1.044220588877653</v>
+        <v>1.016191899542082</v>
       </c>
       <c r="M20">
-        <v>1.048866230818541</v>
+        <v>1.009667064060571</v>
       </c>
       <c r="N20">
-        <v>1.018152469616626</v>
+        <v>1.009365885393782</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035737199211203</v>
+        <v>0.9849023615976605</v>
       </c>
       <c r="D21">
-        <v>1.038915460244816</v>
+        <v>1.006683838753159</v>
       </c>
       <c r="E21">
-        <v>1.039617600052091</v>
+        <v>0.9954366206909545</v>
       </c>
       <c r="F21">
-        <v>1.043969112673709</v>
+        <v>0.987171728453874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041272148856875</v>
+        <v>1.038562195988405</v>
       </c>
       <c r="J21">
-        <v>1.042324887733955</v>
+        <v>1.015045157616583</v>
       </c>
       <c r="K21">
-        <v>1.042484781868283</v>
+        <v>1.021539680606072</v>
       </c>
       <c r="L21">
-        <v>1.043184326728686</v>
+        <v>1.010504966526869</v>
       </c>
       <c r="M21">
-        <v>1.047519843221733</v>
+        <v>1.002400281394255</v>
       </c>
       <c r="N21">
-        <v>1.017834968570598</v>
+        <v>1.007526456661216</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03491480798926</v>
+        <v>0.9800656995781266</v>
       </c>
       <c r="D22">
-        <v>1.038288211660939</v>
+        <v>1.003061114732145</v>
       </c>
       <c r="E22">
-        <v>1.03883376707647</v>
+        <v>0.9910635382806275</v>
       </c>
       <c r="F22">
-        <v>1.042990211441491</v>
+        <v>0.9817388339235881</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040978541215574</v>
+        <v>1.036480116214209</v>
       </c>
       <c r="J22">
-        <v>1.041752581954865</v>
+        <v>1.011706466380407</v>
       </c>
       <c r="K22">
-        <v>1.041988508717161</v>
+        <v>1.018572173275826</v>
       </c>
       <c r="L22">
-        <v>1.042531967204916</v>
+        <v>1.006814131546922</v>
       </c>
       <c r="M22">
-        <v>1.046672515483853</v>
+        <v>0.9976809406278658</v>
       </c>
       <c r="N22">
-        <v>1.017634669422253</v>
+        <v>1.006330800707048</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035350830416913</v>
+        <v>0.9826446658215829</v>
       </c>
       <c r="D23">
-        <v>1.038620778996633</v>
+        <v>1.004992197870186</v>
       </c>
       <c r="E23">
-        <v>1.03924931149128</v>
+        <v>0.9933945343978898</v>
       </c>
       <c r="F23">
-        <v>1.043509170889892</v>
+        <v>0.9846356095283315</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041134348525566</v>
+        <v>1.03759134565466</v>
       </c>
       <c r="J23">
-        <v>1.042056079684879</v>
+        <v>1.013487027367289</v>
       </c>
       <c r="K23">
-        <v>1.042251707757078</v>
+        <v>1.0201548677611</v>
       </c>
       <c r="L23">
-        <v>1.042877873685893</v>
+        <v>1.008782117363519</v>
       </c>
       <c r="M23">
-        <v>1.047121776937543</v>
+        <v>1.000197677982595</v>
       </c>
       <c r="N23">
-        <v>1.017740915792184</v>
+        <v>1.006968501755653</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03706615522976</v>
+        <v>0.9924776065268334</v>
       </c>
       <c r="D24">
-        <v>1.039928942177337</v>
+        <v>1.012367170148105</v>
       </c>
       <c r="E24">
-        <v>1.040884845158441</v>
+        <v>1.002298520206548</v>
       </c>
       <c r="F24">
-        <v>1.045551725760333</v>
+        <v>0.9956831337664533</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04174419755462</v>
+        <v>1.041805326986371</v>
       </c>
       <c r="J24">
-        <v>1.043248545506017</v>
+        <v>1.020268331729574</v>
       </c>
       <c r="K24">
-        <v>1.043285349943054</v>
+        <v>1.026180530273847</v>
       </c>
       <c r="L24">
-        <v>1.044237948175199</v>
+        <v>1.016285391133218</v>
       </c>
       <c r="M24">
-        <v>1.048888789865895</v>
+        <v>1.009786484906399</v>
       </c>
       <c r="N24">
-        <v>1.01815778117746</v>
+        <v>1.00939609268169</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039054189802779</v>
+        <v>1.003292311092795</v>
       </c>
       <c r="D25">
-        <v>1.041444710548177</v>
+        <v>1.020499354850803</v>
       </c>
       <c r="E25">
-        <v>1.042781978436634</v>
+        <v>1.012122135835442</v>
       </c>
       <c r="F25">
-        <v>1.047921019216391</v>
+        <v>1.007842302958984</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042444577163544</v>
+        <v>1.046391737609163</v>
       </c>
       <c r="J25">
-        <v>1.044627473744024</v>
+        <v>1.027709381574373</v>
       </c>
       <c r="K25">
-        <v>1.044479605142367</v>
+        <v>1.032787566118734</v>
       </c>
       <c r="L25">
-        <v>1.045812725808853</v>
+        <v>1.024535141260095</v>
       </c>
       <c r="M25">
-        <v>1.05093593655524</v>
+        <v>1.020320084995333</v>
       </c>
       <c r="N25">
-        <v>1.018638611805088</v>
+        <v>1.012056766831157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011496087153574</v>
+        <v>0.9919128004686418</v>
       </c>
       <c r="D2">
-        <v>1.026681377041732</v>
+        <v>1.013742627001532</v>
       </c>
       <c r="E2">
-        <v>1.019596049074952</v>
+        <v>1.000144027151754</v>
       </c>
       <c r="F2">
-        <v>1.017075215755375</v>
+        <v>1.013118868760141</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049830559581615</v>
+        <v>1.040158590965964</v>
       </c>
       <c r="J2">
-        <v>1.033338306122033</v>
+        <v>1.014338118524648</v>
       </c>
       <c r="K2">
-        <v>1.037781103097479</v>
+        <v>1.025013768531153</v>
       </c>
       <c r="L2">
-        <v>1.030788966894785</v>
+        <v>1.011601355811317</v>
       </c>
       <c r="M2">
-        <v>1.028301682757595</v>
+        <v>1.024398413039637</v>
       </c>
       <c r="N2">
-        <v>1.014066240810724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.007806264544842</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.027881985215283</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.028756974508359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017233271306128</v>
+        <v>0.997329925988136</v>
       </c>
       <c r="D3">
-        <v>1.031010722034549</v>
+        <v>1.017292797807043</v>
       </c>
       <c r="E3">
-        <v>1.024834419919467</v>
+        <v>1.005041057133838</v>
       </c>
       <c r="F3">
-        <v>1.023538475447922</v>
+        <v>1.016875084853192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052211335954276</v>
+        <v>1.041214761222939</v>
       </c>
       <c r="J3">
-        <v>1.03726491569045</v>
+        <v>1.017893645519092</v>
       </c>
       <c r="K3">
-        <v>1.041261613743314</v>
+        <v>1.027709093885913</v>
       </c>
       <c r="L3">
-        <v>1.035159102439196</v>
+        <v>1.015609840488912</v>
       </c>
       <c r="M3">
-        <v>1.03387878146978</v>
+        <v>1.027296504591996</v>
       </c>
       <c r="N3">
-        <v>1.015465771955025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009099562494792</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030175667650323</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030660159688743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020851484421576</v>
+        <v>1.000748892820229</v>
       </c>
       <c r="D4">
-        <v>1.033743396737505</v>
+        <v>1.01953622307561</v>
       </c>
       <c r="E4">
-        <v>1.028143100157291</v>
+        <v>1.008137266077323</v>
       </c>
       <c r="F4">
-        <v>1.027617837583115</v>
+        <v>1.01925760077751</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053701386124591</v>
+        <v>1.041869341834193</v>
       </c>
       <c r="J4">
-        <v>1.039736439254553</v>
+        <v>1.020133461223659</v>
       </c>
       <c r="K4">
-        <v>1.043450936488198</v>
+        <v>1.029404445061636</v>
       </c>
       <c r="L4">
-        <v>1.03791332566773</v>
+        <v>1.01813846359747</v>
       </c>
       <c r="M4">
-        <v>1.037393985689031</v>
+        <v>1.029129029258209</v>
       </c>
       <c r="N4">
-        <v>1.016345533175094</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009913140089276</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.0316260077149</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.031859856475494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022351065645547</v>
+        <v>1.002172362923347</v>
       </c>
       <c r="D5">
-        <v>1.034876457333416</v>
+        <v>1.020473404749313</v>
       </c>
       <c r="E5">
-        <v>1.029515561920442</v>
+        <v>1.009428159090971</v>
       </c>
       <c r="F5">
-        <v>1.029309362919546</v>
+        <v>1.020250732855658</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054316166780021</v>
+        <v>1.042141003591021</v>
       </c>
       <c r="J5">
-        <v>1.040759574580432</v>
+        <v>1.021066833240696</v>
       </c>
       <c r="K5">
-        <v>1.044356897575312</v>
+        <v>1.030112289786136</v>
       </c>
       <c r="L5">
-        <v>1.039054340080094</v>
+        <v>1.019192330675033</v>
       </c>
       <c r="M5">
-        <v>1.038850399864922</v>
+        <v>1.029892110677247</v>
       </c>
       <c r="N5">
-        <v>1.01670943644375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010252843308334</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032229942790951</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.032367619897711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022601618617777</v>
+        <v>1.002417454245127</v>
       </c>
       <c r="D6">
-        <v>1.035065798528052</v>
+        <v>1.020637907925517</v>
       </c>
       <c r="E6">
-        <v>1.029744942946812</v>
+        <v>1.009651136001574</v>
       </c>
       <c r="F6">
-        <v>1.029592035619703</v>
+        <v>1.02041996925118</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054418721221325</v>
+        <v>1.042190132883977</v>
       </c>
       <c r="J6">
-        <v>1.040930450642786</v>
+        <v>1.021229787138116</v>
       </c>
       <c r="K6">
-        <v>1.04450818306567</v>
+        <v>1.030238264382587</v>
       </c>
       <c r="L6">
-        <v>1.039244953465346</v>
+        <v>1.019375522079096</v>
       </c>
       <c r="M6">
-        <v>1.039093712961966</v>
+        <v>1.030022754064638</v>
       </c>
       <c r="N6">
-        <v>1.016770195139149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010313302354078</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.032333339469474</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032465530696995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020871605142552</v>
+        <v>1.000787545944918</v>
       </c>
       <c r="D7">
-        <v>1.033758597776488</v>
+        <v>1.019570023949493</v>
       </c>
       <c r="E7">
-        <v>1.028161510684371</v>
+        <v>1.008174036530718</v>
       </c>
       <c r="F7">
-        <v>1.02764053043317</v>
+        <v>1.019279366927316</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053709646007827</v>
+        <v>1.041883568269696</v>
       </c>
       <c r="J7">
-        <v>1.039750172012845</v>
+        <v>1.020165044326776</v>
       </c>
       <c r="K7">
-        <v>1.043463097914866</v>
+        <v>1.029434932937091</v>
       </c>
       <c r="L7">
-        <v>1.037928637259185</v>
+        <v>1.018171830445007</v>
       </c>
       <c r="M7">
-        <v>1.037413529069045</v>
+        <v>1.029147619566327</v>
       </c>
       <c r="N7">
-        <v>1.016350418741408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009927838531476</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.031640720881285</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.031901741460929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013455120983859</v>
+        <v>0.9937870023417916</v>
       </c>
       <c r="D8">
-        <v>1.028159155312421</v>
+        <v>1.01498078240877</v>
       </c>
       <c r="E8">
-        <v>1.021383666703353</v>
+        <v>1.001839342002576</v>
       </c>
       <c r="F8">
-        <v>1.019281521222126</v>
+        <v>1.014409371641501</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050645883037823</v>
+        <v>1.040535106100559</v>
       </c>
       <c r="J8">
-        <v>1.034680090234656</v>
+        <v>1.015576978463016</v>
       </c>
       <c r="K8">
-        <v>1.038970738048903</v>
+        <v>1.025961582171169</v>
       </c>
       <c r="L8">
-        <v>1.032281568258662</v>
+        <v>1.012994455744421</v>
       </c>
       <c r="M8">
-        <v>1.030206495606468</v>
+        <v>1.025397633178971</v>
       </c>
       <c r="N8">
-        <v>1.014544713629464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008261391817886</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.028672814674616</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.029450376304099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9996157935885606</v>
+        <v>0.9807161475917561</v>
       </c>
       <c r="D9">
-        <v>1.01773246042582</v>
+        <v>1.006424899566414</v>
       </c>
       <c r="E9">
-        <v>1.008778897860274</v>
+        <v>0.9900554093612491</v>
       </c>
       <c r="F9">
-        <v>1.003707407684327</v>
+        <v>1.005424255673686</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044838851404573</v>
+        <v>1.03791229206915</v>
       </c>
       <c r="J9">
-        <v>1.025182126472937</v>
+        <v>1.00696874082396</v>
       </c>
       <c r="K9">
-        <v>1.030544245987071</v>
+        <v>1.019414590268396</v>
       </c>
       <c r="L9">
-        <v>1.02173113137826</v>
+        <v>1.003311917849142</v>
       </c>
       <c r="M9">
-        <v>1.016740619803465</v>
+        <v>1.018429936890109</v>
       </c>
       <c r="N9">
-        <v>1.011153568538218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.005120650535496</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.023158235577761</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.02481784658871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,81 +857,105 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9897954849842178</v>
+        <v>0.9716879104913473</v>
       </c>
       <c r="D10">
-        <v>1.010353635901967</v>
+        <v>1.000559246964768</v>
       </c>
       <c r="E10">
-        <v>0.9998671839551037</v>
+        <v>0.9819707529830453</v>
       </c>
       <c r="F10">
-        <v>0.9926691452530608</v>
+        <v>0.9995228198197206</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040659694286435</v>
+        <v>1.036072870388329</v>
       </c>
       <c r="J10">
-        <v>1.018419904967635</v>
+        <v>1.001071667636664</v>
       </c>
       <c r="K10">
-        <v>1.024538435125113</v>
+        <v>1.014918411371059</v>
       </c>
       <c r="L10">
-        <v>1.014238836850784</v>
+        <v>0.996673344094523</v>
       </c>
       <c r="M10">
-        <v>1.007172034163406</v>
+        <v>1.01390069525027</v>
       </c>
       <c r="N10">
-        <v>1.008734597725179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.002982203050849</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.019626188532571</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.021655750616419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9853830844925275</v>
+        <v>0.9694164697434977</v>
       </c>
       <c r="D11">
-        <v>1.007044166603331</v>
+        <v>0.9992501915511741</v>
       </c>
       <c r="E11">
-        <v>0.9958716122917028</v>
+        <v>0.980107997527826</v>
       </c>
       <c r="F11">
-        <v>0.9877117638731243</v>
+        <v>0.999909673437223</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038768672764498</v>
+        <v>1.035842397720165</v>
       </c>
       <c r="J11">
-        <v>1.015376845482748</v>
+        <v>1.000119327745904</v>
       </c>
       <c r="K11">
-        <v>1.021834451777938</v>
+        <v>1.014186262027611</v>
       </c>
       <c r="L11">
-        <v>1.010871806185163</v>
+        <v>0.9954150572705533</v>
       </c>
       <c r="M11">
-        <v>1.002869199570365</v>
+        <v>1.014833293385919</v>
       </c>
       <c r="N11">
-        <v>1.007645220286931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.002786117760455</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.020809542325421</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.021171534625683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9837182317882337</v>
+        <v>0.9691990108825322</v>
       </c>
       <c r="D12">
-        <v>1.005796467815837</v>
+        <v>0.9992331028560695</v>
       </c>
       <c r="E12">
-        <v>0.9943654036188673</v>
+        <v>0.980036375930467</v>
       </c>
       <c r="F12">
-        <v>0.9858415429925667</v>
+        <v>1.001073129816479</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03805323068727</v>
+        <v>1.035975366605264</v>
       </c>
       <c r="J12">
-        <v>1.014228015188191</v>
+        <v>1.000366650265786</v>
       </c>
       <c r="K12">
-        <v>1.020813452888824</v>
+        <v>1.014375010168023</v>
       </c>
       <c r="L12">
-        <v>1.009601355666035</v>
+        <v>0.9955563092091976</v>
       </c>
       <c r="M12">
-        <v>1.001245118343796</v>
+        <v>1.016179799191548</v>
       </c>
       <c r="N12">
-        <v>1.007233854568444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.002997967081129</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.022206713975996</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.021304990389431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.984076551410709</v>
+        <v>0.970562114153351</v>
       </c>
       <c r="D13">
-        <v>1.006064957812338</v>
+        <v>1.000226063407631</v>
       </c>
       <c r="E13">
-        <v>0.9946895157360003</v>
+        <v>0.9813504745914238</v>
       </c>
       <c r="F13">
-        <v>0.9862440528413428</v>
+        <v>1.002936838320285</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038207298924655</v>
+        <v>1.036410578460754</v>
       </c>
       <c r="J13">
-        <v>1.014475301563283</v>
+        <v>1.00156939202503</v>
       </c>
       <c r="K13">
-        <v>1.021033231204033</v>
+        <v>1.015304914321538</v>
       </c>
       <c r="L13">
-        <v>1.009874789833053</v>
+        <v>0.9967986411977408</v>
       </c>
       <c r="M13">
-        <v>1.001594689234835</v>
+        <v>1.017964143008897</v>
       </c>
       <c r="N13">
-        <v>1.007322405329236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.003547238599682</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.023898212176879</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.021959948138641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9852460066652768</v>
+        <v>0.9722105466006488</v>
       </c>
       <c r="D14">
-        <v>1.00694141462388</v>
+        <v>1.001365779868558</v>
       </c>
       <c r="E14">
-        <v>0.9957475683493824</v>
+        <v>0.9828772222418065</v>
       </c>
       <c r="F14">
-        <v>0.9875577720075067</v>
+        <v>1.004524977837139</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038709804872369</v>
+        <v>1.036846567861235</v>
       </c>
       <c r="J14">
-        <v>1.015282267806825</v>
+        <v>1.00282428604325</v>
       </c>
       <c r="K14">
-        <v>1.02175040134855</v>
+        <v>1.0162789205774</v>
       </c>
       <c r="L14">
-        <v>1.010767202153778</v>
+        <v>0.9981468418120655</v>
       </c>
       <c r="M14">
-        <v>1.002735490501488</v>
+        <v>1.01937891882779</v>
       </c>
       <c r="N14">
-        <v>1.007611356384815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.004077627487456</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.025191906501117</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.022650075466801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9859630579291944</v>
+        <v>0.9729757158364588</v>
       </c>
       <c r="D15">
-        <v>1.00747894965724</v>
+        <v>1.001879149049133</v>
       </c>
       <c r="E15">
-        <v>0.996396495849447</v>
+        <v>0.9835712818274306</v>
       </c>
       <c r="F15">
-        <v>0.9883633103266182</v>
+        <v>1.005117442339873</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039017663135523</v>
+        <v>1.037025960889375</v>
       </c>
       <c r="J15">
-        <v>1.015776975709644</v>
+        <v>1.003359421374471</v>
       </c>
       <c r="K15">
-        <v>1.022190037199398</v>
+        <v>1.016693983110192</v>
       </c>
       <c r="L15">
-        <v>1.011314382914801</v>
+        <v>0.9987361228487676</v>
       </c>
       <c r="M15">
-        <v>1.003434896465956</v>
+        <v>1.019872097338195</v>
       </c>
       <c r="N15">
-        <v>1.007788484589301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.004288777392593</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.025619631314602</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.022949518251878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9900847953428629</v>
+        <v>0.9765014044051264</v>
       </c>
       <c r="D16">
-        <v>1.010570762272698</v>
+        <v>1.004144945452905</v>
       </c>
       <c r="E16">
-        <v>1.000129348612965</v>
+        <v>0.9867017873757185</v>
       </c>
       <c r="F16">
-        <v>0.9929942290974221</v>
+        <v>1.007279412354844</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040783413255503</v>
+        <v>1.037723492378271</v>
       </c>
       <c r="J16">
-        <v>1.018619338317449</v>
+        <v>1.005599507379534</v>
       </c>
       <c r="K16">
-        <v>1.024715620717187</v>
+        <v>1.018403303753479</v>
       </c>
       <c r="L16">
-        <v>1.014459597144319</v>
+        <v>1.001277971577162</v>
       </c>
       <c r="M16">
-        <v>1.007454084069868</v>
+        <v>1.021482171642249</v>
       </c>
       <c r="N16">
-        <v>1.008805977404823</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.005078067217451</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.026853104073589</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.024161317942945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9926261419097644</v>
+        <v>0.9783571084618674</v>
       </c>
       <c r="D17">
-        <v>1.012478719053118</v>
+        <v>1.005297290191098</v>
       </c>
       <c r="E17">
-        <v>1.002433224601583</v>
+        <v>0.9883192909293563</v>
       </c>
       <c r="F17">
-        <v>0.9958500630151493</v>
+        <v>1.008115878081913</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041868683147346</v>
+        <v>1.038031968901607</v>
       </c>
       <c r="J17">
-        <v>1.020370665822585</v>
+        <v>1.00667317132626</v>
       </c>
       <c r="K17">
-        <v>1.026271432481284</v>
+        <v>1.019213071884276</v>
       </c>
       <c r="L17">
-        <v>1.016398724660882</v>
+        <v>1.002535272613757</v>
       </c>
       <c r="M17">
-        <v>1.009931249031276</v>
+        <v>1.021983087385736</v>
       </c>
       <c r="N17">
-        <v>1.00943270943087</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005410132336201</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.027118610592495</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.024736496355839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9940931480771141</v>
+        <v>0.9788834413561257</v>
       </c>
       <c r="D18">
-        <v>1.013580650187145</v>
+        <v>1.005545486536134</v>
       </c>
       <c r="E18">
-        <v>1.003763954186664</v>
+        <v>0.9887145456339471</v>
       </c>
       <c r="F18">
-        <v>0.9974988279020197</v>
+        <v>1.007706381021228</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042493905088586</v>
+        <v>1.03801130443623</v>
       </c>
       <c r="J18">
-        <v>1.021381181576534</v>
+        <v>1.006768647700764</v>
       </c>
       <c r="K18">
-        <v>1.027169010336107</v>
+        <v>1.019269179327788</v>
       </c>
       <c r="L18">
-        <v>1.017518031638037</v>
+        <v>1.002730966271598</v>
       </c>
       <c r="M18">
-        <v>1.011360874952544</v>
+        <v>1.021393405064418</v>
       </c>
       <c r="N18">
-        <v>1.00979425485064</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00534924253014</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.0264117571529</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.02476434925549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9945908136545324</v>
+        <v>0.9782050269785743</v>
       </c>
       <c r="D19">
-        <v>1.013954558662441</v>
+        <v>1.004993754468938</v>
       </c>
       <c r="E19">
-        <v>1.004215523668607</v>
+        <v>0.9880009329494051</v>
       </c>
       <c r="F19">
-        <v>0.9980581925280434</v>
+        <v>1.00606951767369</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042705790016257</v>
+        <v>1.037707576535751</v>
       </c>
       <c r="J19">
-        <v>1.021723910223574</v>
+        <v>1.005977873069808</v>
       </c>
       <c r="K19">
-        <v>1.027473412912068</v>
+        <v>1.018662758470537</v>
       </c>
       <c r="L19">
-        <v>1.017897731184625</v>
+        <v>1.001964375894636</v>
       </c>
       <c r="M19">
-        <v>1.011845804583986</v>
+        <v>1.019720313603529</v>
       </c>
       <c r="N19">
-        <v>1.009916863274939</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.004947739074417</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.024758280350505</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.024342076783845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9923550765609599</v>
+        <v>0.9741020804406459</v>
       </c>
       <c r="D20">
-        <v>1.012275154222087</v>
+        <v>1.002148400273069</v>
       </c>
       <c r="E20">
-        <v>1.002187404260525</v>
+        <v>0.9841358031962343</v>
       </c>
       <c r="F20">
-        <v>0.9955454315655783</v>
+        <v>1.001094079830404</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041753056032624</v>
+        <v>1.036588153132582</v>
       </c>
       <c r="J20">
-        <v>1.020183911637472</v>
+        <v>1.002669164695935</v>
       </c>
       <c r="K20">
-        <v>1.026105540156321</v>
+        <v>1.016153577554648</v>
       </c>
       <c r="L20">
-        <v>1.016191899542082</v>
+        <v>0.9984634616616954</v>
       </c>
       <c r="M20">
-        <v>1.009667064060571</v>
+        <v>1.015117718405897</v>
       </c>
       <c r="N20">
-        <v>1.009365885393782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.0035726459726</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.020578563184788</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.022571942524255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9849023615976605</v>
+        <v>0.9669196943060629</v>
       </c>
       <c r="D21">
-        <v>1.006683838753159</v>
+        <v>0.9974600033351021</v>
       </c>
       <c r="E21">
-        <v>0.9954366206909545</v>
+        <v>0.9776858313533633</v>
       </c>
       <c r="F21">
-        <v>0.987171728453874</v>
+        <v>0.9960590532307432</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038562195988405</v>
+        <v>1.035057542832661</v>
       </c>
       <c r="J21">
-        <v>1.015045157616583</v>
+        <v>0.9978686899607714</v>
       </c>
       <c r="K21">
-        <v>1.021539680606072</v>
+        <v>1.012489657045488</v>
       </c>
       <c r="L21">
-        <v>1.010504966526869</v>
+        <v>0.9931026537870068</v>
       </c>
       <c r="M21">
-        <v>1.002400281394255</v>
+        <v>1.011115474692792</v>
       </c>
       <c r="N21">
-        <v>1.007526456661216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.0018028941744</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.017369160402626</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.0199846373508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9800656995781266</v>
+        <v>0.9623513093652183</v>
       </c>
       <c r="D22">
-        <v>1.003061114732145</v>
+        <v>0.9944851950606391</v>
       </c>
       <c r="E22">
-        <v>0.9910635382806275</v>
+        <v>0.9735998201191626</v>
       </c>
       <c r="F22">
-        <v>0.9817388339235881</v>
+        <v>0.9929974779073133</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036480116214209</v>
+        <v>1.034079101014767</v>
       </c>
       <c r="J22">
-        <v>1.011706466380407</v>
+        <v>0.9948377297855076</v>
       </c>
       <c r="K22">
-        <v>1.018572173275826</v>
+        <v>1.010166698705792</v>
       </c>
       <c r="L22">
-        <v>1.006814131546922</v>
+        <v>0.9897130604854895</v>
       </c>
       <c r="M22">
-        <v>0.9976809406278658</v>
+        <v>1.008708944297856</v>
       </c>
       <c r="N22">
-        <v>1.006330800707048</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.000688480326286</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.015464486403032</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.018328368843884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9826446658215829</v>
+        <v>0.9647656759701725</v>
       </c>
       <c r="D23">
-        <v>1.004992197870186</v>
+        <v>0.9960486612012996</v>
       </c>
       <c r="E23">
-        <v>0.9933945343978898</v>
+        <v>0.9757564920861166</v>
       </c>
       <c r="F23">
-        <v>0.9846356095283315</v>
+        <v>0.9946186398755822</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03759134565466</v>
+        <v>1.034590699974905</v>
       </c>
       <c r="J23">
-        <v>1.013487027367289</v>
+        <v>0.9964337565093757</v>
       </c>
       <c r="K23">
-        <v>1.0201548677611</v>
+        <v>1.011384166415951</v>
       </c>
       <c r="L23">
-        <v>1.008782117363519</v>
+        <v>0.9914996618717077</v>
       </c>
       <c r="M23">
-        <v>1.000197677982595</v>
+        <v>1.009982158820542</v>
       </c>
       <c r="N23">
-        <v>1.006968501755653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00127155465273</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.016472186223382</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.019179363194863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9924776065268334</v>
+        <v>0.9740192039096517</v>
       </c>
       <c r="D24">
-        <v>1.012367170148105</v>
+        <v>1.002068377975337</v>
       </c>
       <c r="E24">
-        <v>1.002298520206548</v>
+        <v>0.9840433209038514</v>
       </c>
       <c r="F24">
-        <v>0.9956831337664533</v>
+        <v>1.000861021246152</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041805326986371</v>
+        <v>1.036539139746469</v>
       </c>
       <c r="J24">
-        <v>1.020268331729574</v>
+        <v>1.002555392695568</v>
       </c>
       <c r="K24">
-        <v>1.026180530273847</v>
+        <v>1.016059267682161</v>
       </c>
       <c r="L24">
-        <v>1.016285391133218</v>
+        <v>0.9983565706647531</v>
       </c>
       <c r="M24">
-        <v>1.009786484906399</v>
+        <v>1.014873033239748</v>
       </c>
       <c r="N24">
-        <v>1.00939609268169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.003512756562818</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020343109010861</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.022477355598899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003292311092795</v>
+        <v>0.9842180289134116</v>
       </c>
       <c r="D25">
-        <v>1.020499354850803</v>
+        <v>1.008726870599956</v>
       </c>
       <c r="E25">
-        <v>1.012122135835442</v>
+        <v>0.993209680005992</v>
       </c>
       <c r="F25">
-        <v>1.007842302958984</v>
+        <v>1.007810961286033</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046391737609163</v>
+        <v>1.03863657910863</v>
       </c>
       <c r="J25">
-        <v>1.027709381574373</v>
+        <v>1.009288447748161</v>
       </c>
       <c r="K25">
-        <v>1.032787566118734</v>
+        <v>1.021191206997538</v>
       </c>
       <c r="L25">
-        <v>1.024535141260095</v>
+        <v>1.005914329534111</v>
       </c>
       <c r="M25">
-        <v>1.020320084995333</v>
+        <v>1.020289220275242</v>
       </c>
       <c r="N25">
-        <v>1.012056766831157</v>
+        <v>1.005973732559688</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024629768671984</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.026103099613926</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9919128004686418</v>
+        <v>0.9933401157392564</v>
       </c>
       <c r="D2">
-        <v>1.013742627001532</v>
+        <v>1.014764296916102</v>
       </c>
       <c r="E2">
-        <v>1.000144027151754</v>
+        <v>1.001561355300666</v>
       </c>
       <c r="F2">
-        <v>1.013118868760141</v>
+        <v>1.013737187260433</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040158590965964</v>
+        <v>1.040650205987953</v>
       </c>
       <c r="J2">
-        <v>1.014338118524648</v>
+        <v>1.015721863999896</v>
       </c>
       <c r="K2">
-        <v>1.025013768531153</v>
+        <v>1.026021703407009</v>
       </c>
       <c r="L2">
-        <v>1.011601355811317</v>
+        <v>1.012998980738385</v>
       </c>
       <c r="M2">
-        <v>1.024398413039637</v>
+        <v>1.025008402013594</v>
       </c>
       <c r="N2">
-        <v>1.007806264544842</v>
+        <v>1.010772486392592</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.027881985215283</v>
+        <v>1.028364759069903</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.028756974508359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029478576458789</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018861778381779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.997329925988136</v>
+        <v>0.9983418782561987</v>
       </c>
       <c r="D3">
-        <v>1.017292797807043</v>
+        <v>1.017903008339971</v>
       </c>
       <c r="E3">
-        <v>1.005041057133838</v>
+        <v>1.006047150410617</v>
       </c>
       <c r="F3">
-        <v>1.016875084853192</v>
+        <v>1.017312878486486</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041214761222939</v>
+        <v>1.041526462946274</v>
       </c>
       <c r="J3">
-        <v>1.017893645519092</v>
+        <v>1.018877847632338</v>
       </c>
       <c r="K3">
-        <v>1.027709093885913</v>
+        <v>1.028311828986069</v>
       </c>
       <c r="L3">
-        <v>1.015609840488912</v>
+        <v>1.016603237145631</v>
       </c>
       <c r="M3">
-        <v>1.027296504591996</v>
+        <v>1.027728928387917</v>
       </c>
       <c r="N3">
-        <v>1.009099562494792</v>
+        <v>1.011679226922027</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030175667650323</v>
+        <v>1.030517907003081</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030660159688743</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031094954550363</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019389706167116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000748892820229</v>
+        <v>1.001503861713117</v>
       </c>
       <c r="D4">
-        <v>1.01953622307561</v>
+        <v>1.019890143034311</v>
       </c>
       <c r="E4">
-        <v>1.008137266077323</v>
+        <v>1.00888841654823</v>
       </c>
       <c r="F4">
-        <v>1.01925760077751</v>
+        <v>1.019583936886416</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041869341834193</v>
+        <v>1.042068927004335</v>
       </c>
       <c r="J4">
-        <v>1.020133461223659</v>
+        <v>1.020869176628685</v>
       </c>
       <c r="K4">
-        <v>1.029404445061636</v>
+        <v>1.029754295089702</v>
       </c>
       <c r="L4">
-        <v>1.01813846359747</v>
+        <v>1.018880736941283</v>
       </c>
       <c r="M4">
-        <v>1.029129029258209</v>
+        <v>1.029451609980215</v>
       </c>
       <c r="N4">
-        <v>1.009913140089276</v>
+        <v>1.012250773833373</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.0316260077149</v>
+        <v>1.031881311875946</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.031859856475494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032115909604386</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019719358859669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.002172362923347</v>
+        <v>1.002821246704789</v>
       </c>
       <c r="D5">
-        <v>1.020473404749313</v>
+        <v>1.020721236794218</v>
       </c>
       <c r="E5">
-        <v>1.009428159090971</v>
+        <v>1.010073953574913</v>
       </c>
       <c r="F5">
-        <v>1.020250732855658</v>
+        <v>1.020531112854032</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042141003591021</v>
+        <v>1.04229410663819</v>
       </c>
       <c r="J5">
-        <v>1.021066833240696</v>
+        <v>1.021699679979503</v>
       </c>
       <c r="K5">
-        <v>1.030112289786136</v>
+        <v>1.030357348955671</v>
       </c>
       <c r="L5">
-        <v>1.019192330675033</v>
+        <v>1.019830706801619</v>
       </c>
       <c r="M5">
-        <v>1.029892110677247</v>
+        <v>1.030169352074132</v>
       </c>
       <c r="N5">
-        <v>1.010252843308334</v>
+        <v>1.012489693492564</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032229942790951</v>
+        <v>1.032449363289625</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032367619897711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032550280550886</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019857143372906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002417454245127</v>
+        <v>1.003047823695912</v>
       </c>
       <c r="D6">
-        <v>1.020637907925517</v>
+        <v>1.020867320356733</v>
       </c>
       <c r="E6">
-        <v>1.009651136001574</v>
+        <v>1.010278535417737</v>
       </c>
       <c r="F6">
-        <v>1.02041996925118</v>
+        <v>1.020692332890801</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042190132883977</v>
+        <v>1.042335086029699</v>
       </c>
       <c r="J6">
-        <v>1.021229787138116</v>
+        <v>1.021844660039651</v>
       </c>
       <c r="K6">
-        <v>1.030238264382587</v>
+        <v>1.030465121990518</v>
       </c>
       <c r="L6">
-        <v>1.019375522079096</v>
+        <v>1.019995749190506</v>
       </c>
       <c r="M6">
-        <v>1.030022754064638</v>
+        <v>1.030292083123105</v>
       </c>
       <c r="N6">
-        <v>1.010313302354078</v>
+        <v>1.012532242784631</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.032333339469474</v>
+        <v>1.032546497780289</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032465530696995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032636186076673</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019882535750382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000787545944918</v>
+        <v>1.0015523255001</v>
       </c>
       <c r="D7">
-        <v>1.019570023949493</v>
+        <v>1.01993065288531</v>
       </c>
       <c r="E7">
-        <v>1.008174036530718</v>
+        <v>1.008934951611037</v>
       </c>
       <c r="F7">
-        <v>1.019279366927316</v>
+        <v>1.019609942087341</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041883568269696</v>
+        <v>1.042086329846312</v>
       </c>
       <c r="J7">
-        <v>1.020165044326776</v>
+        <v>1.020910329631376</v>
       </c>
       <c r="K7">
-        <v>1.029434932937091</v>
+        <v>1.029791416551467</v>
       </c>
       <c r="L7">
-        <v>1.018171830445007</v>
+        <v>1.018923756935222</v>
       </c>
       <c r="M7">
-        <v>1.029147619566327</v>
+        <v>1.029474392049713</v>
       </c>
       <c r="N7">
-        <v>1.009927838531476</v>
+        <v>1.012292020085226</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031640720881285</v>
+        <v>1.031899342575255</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031901741460929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032164475360788</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019731107992234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9937870023417916</v>
+        <v>0.9951107229067494</v>
       </c>
       <c r="D8">
-        <v>1.01498078240877</v>
+        <v>1.015890639195908</v>
       </c>
       <c r="E8">
-        <v>1.001839342002576</v>
+        <v>1.003154356321732</v>
       </c>
       <c r="F8">
-        <v>1.014409371641501</v>
+        <v>1.014982551455343</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.040535106100559</v>
+        <v>1.040979080827277</v>
       </c>
       <c r="J8">
-        <v>1.015576978463016</v>
+        <v>1.016861709630259</v>
       </c>
       <c r="K8">
-        <v>1.025961582171169</v>
+        <v>1.026859579275927</v>
       </c>
       <c r="L8">
-        <v>1.012994455744421</v>
+        <v>1.014291768710092</v>
       </c>
       <c r="M8">
-        <v>1.025397633178971</v>
+        <v>1.025963328132964</v>
       </c>
       <c r="N8">
-        <v>1.008261391817886</v>
+        <v>1.011185950592185</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.028672814674616</v>
+        <v>1.02912053166452</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.029450376304099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030096488017237</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019061725415692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9807161475917561</v>
+        <v>0.9830845232184211</v>
       </c>
       <c r="D9">
-        <v>1.006424899566414</v>
+        <v>1.008356105979552</v>
       </c>
       <c r="E9">
-        <v>0.9900554093612491</v>
+        <v>0.9924008762544831</v>
       </c>
       <c r="F9">
-        <v>1.005424255673686</v>
+        <v>1.006453007703699</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.03791229206915</v>
+        <v>1.038803021028615</v>
       </c>
       <c r="J9">
-        <v>1.00696874082396</v>
+        <v>1.009249084149504</v>
       </c>
       <c r="K9">
-        <v>1.019414590268396</v>
+        <v>1.021315050521202</v>
       </c>
       <c r="L9">
-        <v>1.003311917849142</v>
+        <v>1.005618459003049</v>
       </c>
       <c r="M9">
-        <v>1.018429936890109</v>
+        <v>1.019442249819833</v>
       </c>
       <c r="N9">
-        <v>1.005120650535496</v>
+        <v>1.009004043635469</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023158235577761</v>
+        <v>1.023959432816444</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.02481784658871</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.026172554214973</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017765672088539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9716879104913473</v>
+        <v>0.974867694801454</v>
       </c>
       <c r="D10">
-        <v>1.000559246964768</v>
+        <v>1.003258785743046</v>
       </c>
       <c r="E10">
-        <v>0.9819707529830453</v>
+        <v>0.9851122266000879</v>
       </c>
       <c r="F10">
-        <v>0.9995228198197206</v>
+        <v>1.000905487155295</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.036072870388329</v>
+        <v>1.037300177783773</v>
       </c>
       <c r="J10">
-        <v>1.001071667636664</v>
+        <v>1.00411519540503</v>
       </c>
       <c r="K10">
-        <v>1.014918411371059</v>
+        <v>1.017569450034385</v>
       </c>
       <c r="L10">
-        <v>0.996673344094523</v>
+        <v>0.9997555897454954</v>
       </c>
       <c r="M10">
-        <v>1.01390069525027</v>
+        <v>1.0152584119752</v>
       </c>
       <c r="N10">
-        <v>1.002982203050849</v>
+        <v>1.007660815611109</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019626188532571</v>
+        <v>1.020700691699769</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.021655750616419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.023542876749877</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016891000803039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9694164697434977</v>
+        <v>0.9728226827168097</v>
       </c>
       <c r="D11">
-        <v>0.9992501915511741</v>
+        <v>1.00215029077572</v>
       </c>
       <c r="E11">
-        <v>0.980107997527826</v>
+        <v>0.9834697035008798</v>
       </c>
       <c r="F11">
-        <v>0.999909673437223</v>
+        <v>1.001379152686934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.035842397720165</v>
+        <v>1.037149736798909</v>
       </c>
       <c r="J11">
-        <v>1.000119327745904</v>
+        <v>1.003371466311418</v>
       </c>
       <c r="K11">
-        <v>1.014186262027611</v>
+        <v>1.017031769373638</v>
       </c>
       <c r="L11">
-        <v>0.9954150572705533</v>
+        <v>0.9987102381902399</v>
       </c>
       <c r="M11">
-        <v>1.014833293385919</v>
+        <v>1.016275106991403</v>
       </c>
       <c r="N11">
-        <v>1.002786117760455</v>
+        <v>1.007793212781515</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.020809542325421</v>
+        <v>1.02195000114084</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.021171534625683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.023199333220413</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016851834572471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9691990108825322</v>
+        <v>0.9726036626211396</v>
       </c>
       <c r="D12">
-        <v>0.9992331028560695</v>
+        <v>1.002127264187106</v>
       </c>
       <c r="E12">
-        <v>0.980036375930467</v>
+        <v>0.9833953388517783</v>
       </c>
       <c r="F12">
-        <v>1.001073129816479</v>
+        <v>1.002533456852338</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.035975366605264</v>
+        <v>1.037272008396879</v>
       </c>
       <c r="J12">
-        <v>1.000366650265786</v>
+        <v>1.003614508058289</v>
       </c>
       <c r="K12">
-        <v>1.014375010168023</v>
+        <v>1.017213822338925</v>
       </c>
       <c r="L12">
-        <v>0.9955563092091976</v>
+        <v>0.9988477252490646</v>
       </c>
       <c r="M12">
-        <v>1.016179799191548</v>
+        <v>1.017612280252247</v>
       </c>
       <c r="N12">
-        <v>1.002997967081129</v>
+        <v>1.008052417428366</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022206713975996</v>
+        <v>1.023339393969706</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.021304990389431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.023328051643301</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016957173745785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.970562114153351</v>
+        <v>0.9737670830539641</v>
       </c>
       <c r="D13">
-        <v>1.000226063407631</v>
+        <v>1.002937453713788</v>
       </c>
       <c r="E13">
-        <v>0.9813504745914238</v>
+        <v>0.9845129054963481</v>
       </c>
       <c r="F13">
-        <v>1.002936838320285</v>
+        <v>1.004305217321378</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.036410578460754</v>
+        <v>1.037617703962026</v>
       </c>
       <c r="J13">
-        <v>1.00156939202503</v>
+        <v>1.004627855137189</v>
       </c>
       <c r="K13">
-        <v>1.015304914321538</v>
+        <v>1.017964746741858</v>
       </c>
       <c r="L13">
-        <v>0.9967986411977408</v>
+        <v>0.9998978983924065</v>
       </c>
       <c r="M13">
-        <v>1.017964143008897</v>
+        <v>1.019306639961177</v>
       </c>
       <c r="N13">
-        <v>1.003547238599682</v>
+        <v>1.008392195938861</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.023898212176879</v>
+        <v>1.024959467238522</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.021959948138641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.023856207431288</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017183511944772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9722105466006488</v>
+        <v>0.9751912790379536</v>
       </c>
       <c r="D14">
-        <v>1.001365779868558</v>
+        <v>1.003873933230516</v>
       </c>
       <c r="E14">
-        <v>0.9828772222418065</v>
+        <v>0.9858193636585314</v>
       </c>
       <c r="F14">
-        <v>1.004524977837139</v>
+        <v>1.005794336834853</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.036846567861235</v>
+        <v>1.037957818757814</v>
       </c>
       <c r="J14">
-        <v>1.00282428604325</v>
+        <v>1.005671019557806</v>
       </c>
       <c r="K14">
-        <v>1.0162789205774</v>
+        <v>1.018740034259132</v>
       </c>
       <c r="L14">
-        <v>0.9981468418120655</v>
+        <v>1.001031081547672</v>
       </c>
       <c r="M14">
-        <v>1.01937891882779</v>
+        <v>1.020624628128354</v>
       </c>
       <c r="N14">
-        <v>1.004077627487456</v>
+        <v>1.008664360840278</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.025191906501117</v>
+        <v>1.026176515243603</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.022650075466801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.024405951604967</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017395060191076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9729757158364588</v>
+        <v>0.9758591449125287</v>
       </c>
       <c r="D15">
-        <v>1.001879149049133</v>
+        <v>1.004299510167409</v>
       </c>
       <c r="E15">
-        <v>0.9835712818274306</v>
+        <v>0.9864179141731707</v>
       </c>
       <c r="F15">
-        <v>1.005117442339873</v>
+        <v>1.006344722555261</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.037025960889375</v>
+        <v>1.038096961963948</v>
       </c>
       <c r="J15">
-        <v>1.003359421374471</v>
+        <v>1.00611447201547</v>
       </c>
       <c r="K15">
-        <v>1.016693983110192</v>
+        <v>1.01906931749795</v>
       </c>
       <c r="L15">
-        <v>0.9987361228487676</v>
+        <v>1.001527215297076</v>
       </c>
       <c r="M15">
-        <v>1.019872097338195</v>
+        <v>1.02107670219815</v>
       </c>
       <c r="N15">
-        <v>1.004288777392593</v>
+        <v>1.008758283870919</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.025619631314602</v>
+        <v>1.026571725895256</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.022949518251878</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.024645301362078</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017478234079413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9765014044051264</v>
+        <v>0.9789901051962492</v>
       </c>
       <c r="D16">
-        <v>1.004144945452905</v>
+        <v>1.006208218342195</v>
       </c>
       <c r="E16">
-        <v>0.9867017873757185</v>
+        <v>0.989161234206389</v>
       </c>
       <c r="F16">
-        <v>1.007279412354844</v>
+        <v>1.008339124016161</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.037723492378271</v>
+        <v>1.038637892484344</v>
       </c>
       <c r="J16">
-        <v>1.005599507379534</v>
+        <v>1.007983288021566</v>
       </c>
       <c r="K16">
-        <v>1.018403303753479</v>
+        <v>1.020429927871015</v>
       </c>
       <c r="L16">
-        <v>1.001277971577162</v>
+        <v>1.003691720550894</v>
       </c>
       <c r="M16">
-        <v>1.021482171642249</v>
+        <v>1.022523187555495</v>
       </c>
       <c r="N16">
-        <v>1.005078067217451</v>
+        <v>1.009059203657658</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.026853104073589</v>
+        <v>1.02767592557802</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.024161317942945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.025610826453071</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017782184920031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9783571084618674</v>
+        <v>0.9806747540642452</v>
       </c>
       <c r="D17">
-        <v>1.005297290191098</v>
+        <v>1.00720328539693</v>
       </c>
       <c r="E17">
-        <v>0.9883192909293563</v>
+        <v>0.9906110718948309</v>
       </c>
       <c r="F17">
-        <v>1.008115878081913</v>
+        <v>1.009104376612123</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.038031968901607</v>
+        <v>1.03888096523654</v>
       </c>
       <c r="J17">
-        <v>1.00667317132626</v>
+        <v>1.008896378595318</v>
       </c>
       <c r="K17">
-        <v>1.019213071884276</v>
+        <v>1.021086182823022</v>
       </c>
       <c r="L17">
-        <v>1.002535272613757</v>
+        <v>1.004785750376453</v>
       </c>
       <c r="M17">
-        <v>1.021983087385736</v>
+        <v>1.022954634286938</v>
       </c>
       <c r="N17">
-        <v>1.005410132336201</v>
+        <v>1.009182787304454</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.027118610592495</v>
+        <v>1.02788660146695</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.024736496355839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.026077702244099</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017909358961974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9788834413561257</v>
+        <v>0.9811906869269342</v>
       </c>
       <c r="D18">
-        <v>1.005545486536134</v>
+        <v>1.00744068026405</v>
       </c>
       <c r="E18">
-        <v>0.9887145456339471</v>
+        <v>0.9909967708601088</v>
       </c>
       <c r="F18">
-        <v>1.007706381021228</v>
+        <v>1.008693794179788</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.03801130443623</v>
+        <v>1.038862130735167</v>
       </c>
       <c r="J18">
-        <v>1.006768647700764</v>
+        <v>1.008983616566391</v>
       </c>
       <c r="K18">
-        <v>1.019269179327788</v>
+        <v>1.02113220210238</v>
       </c>
       <c r="L18">
-        <v>1.002730966271598</v>
+        <v>1.004972742762823</v>
       </c>
       <c r="M18">
-        <v>1.021393405064418</v>
+        <v>1.02236413003436</v>
       </c>
       <c r="N18">
-        <v>1.00534924253014</v>
+        <v>1.009099806267931</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.0264117571529</v>
+        <v>1.027179261698519</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.02476434925549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.026097300022983</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017875973515676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9782050269785743</v>
+        <v>0.980631711582643</v>
       </c>
       <c r="D19">
-        <v>1.004993754468938</v>
+        <v>1.006998890508445</v>
       </c>
       <c r="E19">
-        <v>0.9880009329494051</v>
+        <v>0.9904014683364701</v>
       </c>
       <c r="F19">
-        <v>1.00606951767369</v>
+        <v>1.007113566375744</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.037707576535751</v>
+        <v>1.038614689262925</v>
       </c>
       <c r="J19">
-        <v>1.005977873069808</v>
+        <v>1.00830790210288</v>
       </c>
       <c r="K19">
-        <v>1.018662758470537</v>
+        <v>1.020633996532698</v>
       </c>
       <c r="L19">
-        <v>1.001964375894636</v>
+        <v>1.004322522176032</v>
       </c>
       <c r="M19">
-        <v>1.019720313603529</v>
+        <v>1.020746739001961</v>
       </c>
       <c r="N19">
-        <v>1.004947739074417</v>
+        <v>1.008816364002742</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.024758280350505</v>
+        <v>1.025570097376192</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.024342076783845</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.025752166550207</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017703584693966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9741020804406459</v>
+        <v>0.9770183591190411</v>
       </c>
       <c r="D20">
-        <v>1.002148400273069</v>
+        <v>1.004607103929359</v>
       </c>
       <c r="E20">
-        <v>0.9841358031962343</v>
+        <v>0.9870187999026089</v>
       </c>
       <c r="F20">
-        <v>1.001094079830404</v>
+        <v>1.002361773538551</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.036588153132582</v>
+        <v>1.037707518420149</v>
       </c>
       <c r="J20">
-        <v>1.002669164695935</v>
+        <v>1.005464860856268</v>
       </c>
       <c r="K20">
-        <v>1.016153577554648</v>
+        <v>1.018569423843825</v>
       </c>
       <c r="L20">
-        <v>0.9984634616616954</v>
+        <v>1.001293814333119</v>
       </c>
       <c r="M20">
-        <v>1.015117718405897</v>
+        <v>1.0163632207455</v>
       </c>
       <c r="N20">
-        <v>1.0035726459726</v>
+        <v>1.007949395924154</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.020578563184788</v>
+        <v>1.021564271291101</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.022571942524255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.024296804836593</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017128679099796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9669196943060629</v>
+        <v>0.9707134204634671</v>
       </c>
       <c r="D21">
-        <v>0.9974600033351021</v>
+        <v>1.000710436982428</v>
       </c>
       <c r="E21">
-        <v>0.9776858313533633</v>
+        <v>0.9814291061601049</v>
       </c>
       <c r="F21">
-        <v>0.9960590532307432</v>
+        <v>0.9977121126285664</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.035057542832661</v>
+        <v>1.036534190092743</v>
       </c>
       <c r="J21">
-        <v>0.9978686899607714</v>
+        <v>1.001488767271124</v>
       </c>
       <c r="K21">
-        <v>1.012489657045488</v>
+        <v>1.015678362406353</v>
       </c>
       <c r="L21">
-        <v>0.9931026537870068</v>
+        <v>0.996771063187172</v>
       </c>
       <c r="M21">
-        <v>1.011115474692792</v>
+        <v>1.012736959763462</v>
       </c>
       <c r="N21">
-        <v>1.0018028941744</v>
+        <v>1.00724210787067</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.017369160402626</v>
+        <v>1.018652498861989</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.0199846373508</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.022256310152917</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016450483152783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9623513093652183</v>
+        <v>0.9667138376829058</v>
       </c>
       <c r="D22">
-        <v>0.9944851950606391</v>
+        <v>0.9982479338683773</v>
       </c>
       <c r="E22">
-        <v>0.9735998201191626</v>
+        <v>0.9778988062031458</v>
       </c>
       <c r="F22">
-        <v>0.9929974779073133</v>
+        <v>0.9949002450170908</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.034079101014767</v>
+        <v>1.035787403785734</v>
       </c>
       <c r="J22">
-        <v>0.9948377297855076</v>
+        <v>0.9989878472825053</v>
       </c>
       <c r="K22">
-        <v>1.010166698705792</v>
+        <v>1.013854179618077</v>
       </c>
       <c r="L22">
-        <v>0.9897130604854895</v>
+        <v>0.9939211851091617</v>
       </c>
       <c r="M22">
-        <v>1.008708944297856</v>
+        <v>1.010573410560106</v>
       </c>
       <c r="N22">
-        <v>1.000688480326286</v>
+        <v>1.006798061997933</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.015464486403032</v>
+        <v>1.0169401384766</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.018328368843884</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.020951454308503</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016023099084927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9647656759701725</v>
+        <v>0.9688023313615068</v>
       </c>
       <c r="D23">
-        <v>0.9960486612012996</v>
+        <v>0.9995204489556994</v>
       </c>
       <c r="E23">
-        <v>0.9757564920861166</v>
+        <v>0.9797370891271486</v>
       </c>
       <c r="F23">
-        <v>0.9946186398755822</v>
+        <v>0.9963783607014852</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.034590699974905</v>
+        <v>1.036166826491018</v>
       </c>
       <c r="J23">
-        <v>0.9964337565093757</v>
+        <v>1.000280150523077</v>
       </c>
       <c r="K23">
-        <v>1.011384166415951</v>
+        <v>1.014788379916407</v>
       </c>
       <c r="L23">
-        <v>0.9914996618717077</v>
+        <v>0.9953985341525511</v>
       </c>
       <c r="M23">
-        <v>1.009982158820542</v>
+        <v>1.01170742215627</v>
       </c>
       <c r="N23">
-        <v>1.00127155465273</v>
+        <v>1.006977983873604</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.016472186223382</v>
+        <v>1.017837662657902</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.019179363194863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02160122299063</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016237593546298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9740192039096517</v>
+        <v>0.9769509910605668</v>
       </c>
       <c r="D24">
-        <v>1.002068377975337</v>
+        <v>1.004541103343123</v>
       </c>
       <c r="E24">
-        <v>0.9840433209038514</v>
+        <v>0.9869417101412165</v>
       </c>
       <c r="F24">
-        <v>1.000861021246152</v>
+        <v>1.002136478103514</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.036539139746469</v>
+        <v>1.037666039412888</v>
       </c>
       <c r="J24">
-        <v>1.002555392695568</v>
+        <v>1.005366101005405</v>
       </c>
       <c r="K24">
-        <v>1.016059267682161</v>
+        <v>1.018488938682059</v>
       </c>
       <c r="L24">
-        <v>0.9983565706647531</v>
+        <v>1.001202091497349</v>
       </c>
       <c r="M24">
-        <v>1.014873033239748</v>
+        <v>1.016126178386066</v>
       </c>
       <c r="N24">
-        <v>1.003512756562818</v>
+        <v>1.007904098577423</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020343109010861</v>
+        <v>1.021334917427417</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.022477355598899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.024209357278993</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017099057609449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9842180289134116</v>
+        <v>0.9862816041512088</v>
       </c>
       <c r="D25">
-        <v>1.008726870599956</v>
+        <v>1.010366337822963</v>
       </c>
       <c r="E25">
-        <v>0.993209680005992</v>
+        <v>0.995255057997228</v>
       </c>
       <c r="F25">
-        <v>1.007810961286033</v>
+        <v>1.008706584069664</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.03863657910863</v>
+        <v>1.03939867840683</v>
       </c>
       <c r="J25">
-        <v>1.009288447748161</v>
+        <v>1.011279634290269</v>
       </c>
       <c r="K25">
-        <v>1.021191206997538</v>
+        <v>1.0228058332332</v>
       </c>
       <c r="L25">
-        <v>1.005914329534111</v>
+        <v>1.007927482383483</v>
       </c>
       <c r="M25">
-        <v>1.020289220275242</v>
+        <v>1.021171228490612</v>
       </c>
       <c r="N25">
-        <v>1.005973732559688</v>
+        <v>1.009558432508727</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024629768671984</v>
+        <v>1.025327834505225</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.026103099613926</v>
+        <v>1.027258461168846</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018119002461213</v>
       </c>
     </row>
   </sheetData>
